--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="150">
   <si>
     <t xml:space="preserve">Size of training dataset</t>
   </si>
@@ -431,7 +432,7 @@
     <t xml:space="preserve">ResNet-50</t>
   </si>
   <si>
-    <t xml:space="preserve">CE + CosFace</t>
+    <t xml:space="preserve">CE + CosFace (v1)</t>
   </si>
   <si>
     <t xml:space="preserve">Cosface parameters:</t>
@@ -465,6 +466,18 @@
   </si>
   <si>
     <t xml:space="preserve">Weight decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5350 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5084 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE + CosFace (v2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR=0.001</t>
   </si>
 </sst>
 </file>
@@ -679,9 +692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>417960</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -695,7 +708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219600" y="3063240"/>
-          <a:ext cx="4890600" cy="2680560"/>
+          <a:ext cx="4889520" cy="2679480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,9 +729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
+      <xdr:colOff>485280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,7 +745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9310680" y="335160"/>
-          <a:ext cx="4867920" cy="2680560"/>
+          <a:ext cx="4866840" cy="2679480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,9 +771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -774,7 +787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9653760" y="388800"/>
-          <a:ext cx="5102640" cy="2535840"/>
+          <a:ext cx="5101560" cy="2534760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,9 +813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>212400</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -816,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="122040"/>
-          <a:ext cx="5034240" cy="2756880"/>
+          <a:ext cx="5033160" cy="2755800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -858,7 +871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3551040"/>
-          <a:ext cx="5348880" cy="2952000"/>
+          <a:ext cx="5347800" cy="2950920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -895,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="334800"/>
-          <a:ext cx="5347080" cy="2947320"/>
+          <a:ext cx="5346000" cy="2946240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,9 +934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
+      <xdr:colOff>411120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,7 +950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5554440" cy="2949480"/>
+          <a:ext cx="5553360" cy="2948400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,9 +971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>420120</xdr:colOff>
+      <xdr:colOff>419040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,7 +987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3126960"/>
-          <a:ext cx="5661000" cy="2941560"/>
+          <a:ext cx="5659920" cy="2940480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,9 +1013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,7 +1029,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3248280"/>
-          <a:ext cx="6052680" cy="3647520"/>
+          <a:ext cx="6051600" cy="3646440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,9 +1050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,7 +1066,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="175320"/>
-          <a:ext cx="6074280" cy="3047040"/>
+          <a:ext cx="6073200" cy="3045960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,9 +1092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1095,7 +1108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4121280"/>
-          <a:ext cx="4898520" cy="3446280"/>
+          <a:ext cx="4897440" cy="3445200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,7 +1145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="345960"/>
-          <a:ext cx="4781160" cy="3460680"/>
+          <a:ext cx="4780080" cy="3459600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,9 +1171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,7 +1187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="3939840"/>
-          <a:ext cx="4721400" cy="3355200"/>
+          <a:ext cx="4720320" cy="3354120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1195,13 +1208,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 9" descr=""/>
+        <xdr:cNvPr id="13" name="Image 9_1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1211,7 +1224,160 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="433800"/>
-          <a:ext cx="4692960" cy="3369960"/>
+          <a:ext cx="4691880" cy="3368880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>724320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11156400" y="4149000"/>
+          <a:ext cx="4883760" cy="3417480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247480" y="244800"/>
+          <a:ext cx="4760640" cy="3382920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>664200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764840" y="4401360"/>
+          <a:ext cx="3460320" cy="2529000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>737640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16494840" y="556200"/>
+          <a:ext cx="3979080" cy="2614680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -2169,7 +2335,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2459,7 +2625,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2903,7 +3069,7 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
@@ -3782,7 +3948,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
@@ -4214,7 +4380,7 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I107" activeCellId="0" sqref="I107"/>
@@ -6194,7 +6360,7 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
@@ -6660,10 +6826,10 @@
   </sheetPr>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7187,6 +7353,668 @@
       </c>
       <c r="B31" s="0" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.52741575241089</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3.65784600734502</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.442767468420736</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">ROUND(H2*100, 2)</f>
+        <v>44.28</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2.32779622077942</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2.34798509296525</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.622481172661932</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">ROUND(H3*100, 2)</f>
+        <v>62.25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.91621661186218</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.91623057355021</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.689424918207345</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">ROUND(H4*100, 2)</f>
+        <v>68.94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.52889657020569</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.86732691571567</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.69539642602595</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">ROUND(H5*100, 2)</f>
+        <v>69.54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.20801985263825</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1.79980270674593</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.705481181249088</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">ROUND(H6*100, 2)</f>
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.67324411869049</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.79722735157785</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.706956454535306</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">ROUND(H7*100, 2)</f>
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.32672226428986</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.87632078376476</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.692562664766043</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">ROUND(H8*100, 2)</f>
+        <v>69.26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.25058507919312</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1.66457167248897</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.72734923102024</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">ROUND(H9*100, 2)</f>
+        <v>72.73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.53638875484467</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1.7434489934608</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.712886744008312</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">ROUND(H10*100, 2)</f>
+        <v>71.29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.97244584560394</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1.5720281543856</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.741717259323504</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">ROUND(H11*100, 2)</f>
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.32936692237854</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1.57805440861649</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.73960138424944</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">ROUND(H12*100, 2)</f>
+        <v>73.96</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1.85197794437408</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1.6164126811541</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.733327608563111</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">ROUND(H13*100, 2)</f>
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.08087956905365</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1.51950190176762</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.751582183370115</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">ROUND(H14*100, 2)</f>
+        <v>75.16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.54458558559418</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1.49410962736876</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.755195658334264</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">ROUND(H15*100, 2)</f>
+        <v>75.52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.43564367294312</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1.59949128985447</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.737409942208445</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">ROUND(H16*100, 2)</f>
+        <v>73.74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.13834846019745</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.58882880315741</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.738419791675612</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">ROUND(H17*100, 2)</f>
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.80322325229645</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.52479383438933</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.749107365203129</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">ROUND(H18*100, 2)</f>
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.2669438123703</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.53676701896052</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.748348260671687</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">ROUND(H19*100, 2)</f>
+        <v>74.83</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.60611796379089</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.62233796924478</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.732924012262458</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">ROUND(H20*100, 2)</f>
+        <v>73.29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.74150323867798</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.57105436207597</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.741052613500726</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">ROUND(H21*100, 2)</f>
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">MAX(I2:I21)</f>
+        <v>75.52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.9394</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.3108</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.3579</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,8 +17,10 @@
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet9_CosFacev2" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet10_2" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="174">
   <si>
     <t xml:space="preserve">Size of training dataset</t>
   </si>
@@ -488,6 +490,39 @@
     <t xml:space="preserve">LR (21-22 epochs)</t>
   </si>
   <si>
+    <t xml:space="preserve">Train Acc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val Acc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5665 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5556 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (1-5 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (6 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (7-11 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (12-15 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (16 epoch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (17 epoch)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Train Accuracy</t>
   </si>
   <si>
@@ -506,10 +541,19 @@
     <t xml:space="preserve">(Pre-trained – 95 acc softmax and finetune)</t>
   </si>
   <si>
+    <t xml:space="preserve">62x47x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh training</t>
+  </si>
+  <si>
     <t xml:space="preserve">LR (1-50)</t>
   </si>
   <si>
     <t xml:space="preserve">LR (51-100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -521,7 +565,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -551,12 +595,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -620,7 +658,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,10 +692,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -748,9 +782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>415080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -764,7 +798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219600" y="3063240"/>
-          <a:ext cx="4889160" cy="2679120"/>
+          <a:ext cx="4887720" cy="2677680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,9 +819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -801,7 +835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9310680" y="335160"/>
-          <a:ext cx="4866480" cy="2679120"/>
+          <a:ext cx="4865040" cy="2677680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,20 +854,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 11" descr=""/>
+        <xdr:cNvPr id="18" name="Image 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -842,8 +876,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3383640" cy="2635560"/>
+          <a:off x="12118680" y="3416760"/>
+          <a:ext cx="3804120" cy="2705400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -857,20 +891,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>140760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 12" descr=""/>
+        <xdr:cNvPr id="19" name="Image 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -879,82 +913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16342560" y="571680"/>
-          <a:ext cx="4131000" cy="2728440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1054800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>366480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11199960" y="534240"/>
-          <a:ext cx="3767400" cy="2706480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1010520</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11155680" y="3741480"/>
-          <a:ext cx="3807000" cy="2706480"/>
+          <a:off x="12163680" y="376920"/>
+          <a:ext cx="3764880" cy="2705400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,13 +940,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 11" descr=""/>
+        <xdr:cNvPr id="20" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -996,7 +956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3383640" cy="2635560"/>
+          <a:ext cx="3382200" cy="2634120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,13 +977,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>546120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 12" descr=""/>
+        <xdr:cNvPr id="21" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1033,7 +993,239 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="571680"/>
-          <a:ext cx="4131000" cy="2728440"/>
+          <a:ext cx="4129560" cy="2727000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1054800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11199960" y="534240"/>
+          <a:ext cx="3765960" cy="2705040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1010520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11155680" y="3741480"/>
+          <a:ext cx="3805560" cy="2705040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>221040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 11_0" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764840" y="4584240"/>
+          <a:ext cx="3382200" cy="2634120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 12_0" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16342560" y="571680"/>
+          <a:ext cx="4129560" cy="2727000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>221040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764840" y="4584240"/>
+          <a:ext cx="3382200" cy="2634120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16342560" y="571680"/>
+          <a:ext cx="4129560" cy="2727000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,13 +1246,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>479880</xdr:colOff>
+      <xdr:colOff>478440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 15" descr=""/>
+        <xdr:cNvPr id="28" name="Image 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1070,7 +1262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11273760" y="5423400"/>
-          <a:ext cx="3807000" cy="2706480"/>
+          <a:ext cx="3805560" cy="2705040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1091,13 +1283,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>481680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 16" descr=""/>
+        <xdr:cNvPr id="29" name="Image 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11316600" y="1945440"/>
-          <a:ext cx="3767400" cy="2706480"/>
+          <a:ext cx="3765960" cy="2705040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,9 +1325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1149,7 +1341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9653760" y="388800"/>
-          <a:ext cx="5101200" cy="2534400"/>
+          <a:ext cx="5099760" cy="2532960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,9 +1367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>209520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,7 +1383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="122040"/>
-          <a:ext cx="5032800" cy="2755440"/>
+          <a:ext cx="5031360" cy="2754000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1217,9 +1409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1233,7 +1425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3551040"/>
-          <a:ext cx="5347440" cy="2950560"/>
+          <a:ext cx="5346000" cy="2949120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1270,7 +1462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="334800"/>
-          <a:ext cx="5345640" cy="2945880"/>
+          <a:ext cx="5344200" cy="2944440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1312,7 +1504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5553000" cy="2948040"/>
+          <a:ext cx="5551560" cy="2946600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>418680</xdr:colOff>
+      <xdr:colOff>417240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,7 +1541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3126960"/>
-          <a:ext cx="5659560" cy="2940120"/>
+          <a:ext cx="5658120" cy="2938680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,9 +1567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1391,7 +1583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3248280"/>
-          <a:ext cx="6051240" cy="3646080"/>
+          <a:ext cx="6049800" cy="3644640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,9 +1604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1428,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="175320"/>
-          <a:ext cx="6072840" cy="3045600"/>
+          <a:ext cx="6071400" cy="3044160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,9 +1646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>538560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,7 +1662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4281480"/>
-          <a:ext cx="4897080" cy="3597120"/>
+          <a:ext cx="4895640" cy="3595680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1491,9 +1683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1507,7 +1699,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="345960"/>
-          <a:ext cx="4779720" cy="3604320"/>
+          <a:ext cx="4778280" cy="3602880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,9 +1725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1549,7 +1741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4100040"/>
-          <a:ext cx="4719960" cy="3498480"/>
+          <a:ext cx="4718520" cy="3497040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,9 +1762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>223920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,7 +1778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="441720"/>
-          <a:ext cx="4691520" cy="3513240"/>
+          <a:ext cx="4690080" cy="3511800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,9 +1804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:colOff>281160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,7 +1820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4316760"/>
-          <a:ext cx="5020560" cy="3569400"/>
+          <a:ext cx="5019120" cy="3567960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,9 +1841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1665,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="244800"/>
-          <a:ext cx="4760280" cy="3527640"/>
+          <a:ext cx="4758840" cy="3526200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,9 +1878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,7 +1894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3383640" cy="2635560"/>
+          <a:ext cx="3382200" cy="2634120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,9 +1915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1739,7 +1931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="571680"/>
-          <a:ext cx="4131000" cy="2728440"/>
+          <a:ext cx="4129560" cy="2727000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2695,21 +2887,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
   </cols>
   <sheetData>
@@ -2718,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>9265</v>
+        <v>4658123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2747,29 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1984</v>
+        <v>582265</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>27.31730880902</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>24.8471674150036</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.0511602806260119</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.076108870967742</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <f aca="false">ROUND(I2*100, 2)</f>
-        <v>7.61</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,26 +2951,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1984</v>
+        <v>582265</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>19.5728211305621</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>22.8094807286416</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.12779276848354</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.121975806451613</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <f aca="false">ROUND(I3*100, 2)</f>
-        <v>12.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,22 +2962,6 @@
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>14.9938266070675</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>21.8582078872188</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.182514840798705</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.149193548387097</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <f aca="false">ROUND(I4*100, 2)</f>
-        <v>14.92</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2828,22 +2970,6 @@
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>11.519238299675</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>21.6776409764444</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.23712898003238</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <f aca="false">ROUND(I5*100, 2)</f>
-        <v>15.63</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2852,22 +2978,6 @@
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>8.83398922973238</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>21.4517958856398</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.294441446303292</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.174899193548387</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <f aca="false">ROUND(I6*100, 2)</f>
-        <v>17.49</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2877,20 +2987,23 @@
         <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6.6268661435205</v>
+        <v>12.1770183577442</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>21.3482943504087</v>
+        <v>12.4412882262384</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.353157042633567</v>
+        <v>0.0804830615249962</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.182459677419355</v>
-      </c>
-      <c r="J7" s="5" t="n">
+        <v>0.0714245231982001</v>
+      </c>
+      <c r="J7" s="3" t="n">
         <f aca="false">ROUND(I7*100, 2)</f>
-        <v>18.25</v>
+        <v>7.14</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,66 +3014,71 @@
         <v>7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.79362044645784</v>
+        <v>6.46533612455439</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>21.449382228236</v>
+        <v>6.04366729755213</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.406907717215326</v>
+        <v>0.331848042655808</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.175907258064516</v>
-      </c>
-      <c r="J8" s="5" t="n">
+        <v>0.370465337947498</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <f aca="false">ROUND(I8*100, 2)</f>
-        <v>17.59</v>
+        <v>37.05</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.2750474886063</v>
+        <v>5.04278930845296</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>21.5313729316957</v>
+        <v>5.61230992955584</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.481381543443065</v>
+        <v>0.425621221251564</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.177923387096774</v>
-      </c>
-      <c r="J9" s="5" t="n">
+        <v>0.394528264621779</v>
+      </c>
+      <c r="J9" s="3" t="n">
         <f aca="false">ROUND(I9*100, 2)</f>
-        <v>17.79</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.07086341058121</v>
+        <v>4.75837207925859</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>21.676734862789</v>
+        <v>5.57069439020707</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.576686454398273</v>
+        <v>0.441483189688207</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.176411290322581</v>
-      </c>
-      <c r="J10" s="5" t="n">
+        <v>0.393131993164624</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <f aca="false">ROUND(I10*100, 2)</f>
-        <v>17.64</v>
+        <v>39.31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,20 +3086,20 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1.15664394821789</v>
+        <v>4.7770962131913</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>21.7846235459851</v>
+        <v>5.59724027214569</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.736967080410146</v>
+        <v>0.43646614741603</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.181451612903226</v>
-      </c>
-      <c r="J11" s="5" t="n">
+        <v>0.395385262724017</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <f aca="false">ROUND(I11*100, 2)</f>
-        <v>18.15</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,20 +3113,20 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.60374778928592</v>
+        <v>4.84462499935069</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>21.733059360135</v>
+        <v>5.77543494417236</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.885698866702644</v>
+        <v>0.431412395078447</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="J12" s="5" t="n">
+        <v>0.380283891355311</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <f aca="false">ROUND(I12*100, 2)</f>
-        <v>18.75</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,20 +3134,20 @@
         <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.367064922974036</v>
+        <v>3.24736214751015</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>21.8397846221924</v>
+        <v>4.12295760653316</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.94635725849973</v>
+        <v>0.599147553639095</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.182459677419355</v>
-      </c>
-      <c r="J13" s="5" t="n">
+        <v>0.542692760169339</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <f aca="false">ROUND(I13*100, 2)</f>
-        <v>18.25</v>
+        <v>54.27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,20 +3161,20 @@
         <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.231729371446053</v>
+        <v>2.89338007572037</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>21.8222614411385</v>
+        <v>3.96790356587812</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.973772261198057</v>
+        <v>0.638120333018256</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.186491935483871</v>
-      </c>
-      <c r="J14" s="5" t="n">
+        <v>0.556758520604879</v>
+      </c>
+      <c r="J14" s="3" t="n">
         <f aca="false">ROUND(I14*100, 2)</f>
-        <v>18.65</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,20 +3182,20 @@
         <v>14</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.153900097008981</v>
+        <v>2.72316956661244</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>21.7700989015641</v>
+        <v>3.87167525425298</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.9876956287102</v>
+        <v>0.655996202762357</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.191028225806452</v>
-      </c>
-      <c r="J15" s="5" t="n">
+        <v>0.565941624518046</v>
+      </c>
+      <c r="J15" s="3" t="n">
         <f aca="false">ROUND(I15*100, 2)</f>
-        <v>19.1</v>
+        <v>56.59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,51 +3203,47 @@
         <v>132</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.110640753174369</v>
+        <v>2.59844804221987</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>21.6866066225113</v>
+        <v>3.80911507785444</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.992552617377226</v>
+        <v>0.668502527734884</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.197076612903226</v>
-      </c>
-      <c r="J16" s="5" t="n">
+        <v>0.571885653439585</v>
+      </c>
+      <c r="J16" s="3" t="n">
         <f aca="false">ROUND(I16*100, 2)</f>
-        <v>19.71</v>
+        <v>57.19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="8"/>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0805080619732625</v>
+        <v>2.35211673340373</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>21.7199770404447</v>
+        <v>3.71208068093327</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.995574743658932</v>
+        <v>0.699915180427825</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.204133064516129</v>
-      </c>
-      <c r="J17" s="5" t="n">
+        <v>0.583016324182288</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <f aca="false">ROUND(I17*100, 2)</f>
-        <v>20.41</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,73 +3253,35 @@
       <c r="B18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.055658560857796</v>
+        <v>2.47722246807918</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>21.5231996351673</v>
+        <v>3.75689138622721</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.997733405288721</v>
+        <v>0.680623933717508</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.208165322580645</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <f aca="false">ROUND(I18*100, 2)</f>
-        <v>20.82</v>
+        <v>0.575722394442393</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.0389051507951373</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>21.5288964548419</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.999028602266595</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0.212701612903226</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <f aca="false">ROUND(I19*100, 2)</f>
-        <v>21.27</v>
+      <c r="I19" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">MAX(J2:J17)</f>
+        <v>58.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.0334962658435348</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>21.4777732356902</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.999244468429574</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0.21320564516129</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <f aca="false">ROUND(I20*100, 2)</f>
-        <v>21.32</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3214,25 +3290,6 @@
       <c r="B21" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.03142912304054</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>21.4236053343742</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0.999136535348084</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0.21320564516129</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <f aca="false">ROUND(I21*100, 2)</f>
-        <v>21.32</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3241,681 +3298,101 @@
       <c r="B22" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.0259274188845272</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>21.4490985870361</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.999460334592552</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.215725806451613</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <f aca="false">ROUND(I22*100, 2)</f>
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.0218035177602616</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>21.4693060844175</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0.999568267674042</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.218245967741935</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <f aca="false">ROUND(I23*100, 2)</f>
-        <v>21.82</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.0195213511594231</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>21.4737568516885</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.220766129032258</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <f aca="false">ROUND(I24*100, 2)</f>
-        <v>22.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.0204795050632291</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>21.4304370264853</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0.999352401511063</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.220262096774194</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <f aca="false">ROUND(I25*100, 2)</f>
-        <v>22.03</v>
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.0177656889580998</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>21.4686648461126</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0.999460334592552</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.215221774193548</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <f aca="false">ROUND(I26*100, 2)</f>
-        <v>21.52</v>
+      <c r="A26" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.0194483828380567</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>21.4791741524973</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0.213709677419355</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <f aca="false">ROUND(I27*100, 2)</f>
-        <v>21.37</v>
+      <c r="A27" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0.0248078346477607</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>21.522157115321</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0.999460334592552</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.216229838709677</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <f aca="false">ROUND(I28*100, 2)</f>
-        <v>21.62</v>
+      <c r="A28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.0184850686291586</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>21.4562990742345</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.999460334592552</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.216229838709677</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <f aca="false">ROUND(I29*100, 2)</f>
-        <v>21.62</v>
+      <c r="A29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1E-005</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.015487599418299</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>21.4244487516342</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0.219254032258064</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <f aca="false">ROUND(I30*100, 2)</f>
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.0180460582210351</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>21.5679392660818</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.209677419354839</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <f aca="false">ROUND(I31*100, 2)</f>
-        <v>20.97</v>
+        <v>162</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0.0177730866709369</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>21.5877485582905</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0.999568267674042</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.214717741935484</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <f aca="false">ROUND(I32*100, 2)</f>
-        <v>21.47</v>
+      <c r="A32" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>5E-006</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.0152910849048328</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>21.4944060540968</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.999568267674042</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.217741935483871</v>
-      </c>
-      <c r="J33" s="5" t="n">
-        <f aca="false">ROUND(I33*100, 2)</f>
-        <v>21.77</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0.0197643225153137</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>21.55053464828</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0.213709677419355</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <f aca="false">ROUND(I34*100, 2)</f>
-        <v>21.37</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.015230333872634</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>21.4775393701369</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.222782258064516</v>
-      </c>
-      <c r="J35" s="5" t="n">
-        <f aca="false">ROUND(I35*100, 2)</f>
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.0154737295529615</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>21.442699924592</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.221270161290323</v>
-      </c>
-      <c r="J36" s="5" t="n">
-        <f aca="false">ROUND(I36*100, 2)</f>
-        <v>22.13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0.0143659628750792</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>21.4174802841679</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.218245967741935</v>
-      </c>
-      <c r="J37" s="5" t="n">
-        <f aca="false">ROUND(I37*100, 2)</f>
-        <v>21.82</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.0122897187206659</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>21.4614120606453</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.999676200755532</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.219254032258064</v>
-      </c>
-      <c r="J38" s="5" t="n">
-        <f aca="false">ROUND(I38*100, 2)</f>
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.0109277569320449</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>21.4694879593388</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.219758064516129</v>
-      </c>
-      <c r="J39" s="5" t="n">
-        <f aca="false">ROUND(I39*100, 2)</f>
-        <v>21.98</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.0113909826012347</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>21.4990145160306</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.999460334592552</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0.217237903225806</v>
-      </c>
-      <c r="J40" s="5" t="n">
-        <f aca="false">ROUND(I40*100, 2)</f>
-        <v>21.72</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.0129698573035192</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>21.4394792126071</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>0.217741935483871</v>
-      </c>
-      <c r="J41" s="5" t="n">
-        <f aca="false">ROUND(I41*100, 2)</f>
-        <v>21.77</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0.0119060819076964</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>21.4308253872779</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0.219758064516129</v>
-      </c>
-      <c r="J42" s="5" t="n">
-        <f aca="false">ROUND(I42*100, 2)</f>
-        <v>21.98</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0.0107037490677074</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>21.4809996081937</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0.220766129032258</v>
-      </c>
-      <c r="J43" s="5" t="n">
-        <f aca="false">ROUND(I43*100, 2)</f>
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0.00657332679161302</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>21.4535196981122</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.99989206691851</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.221270161290323</v>
-      </c>
-      <c r="J44" s="5" t="n">
-        <f aca="false">ROUND(I44*100, 2)</f>
-        <v>22.13</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0.0101747877971222</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>21.4624520578692</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0.99989206691851</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0.221774193548387</v>
-      </c>
-      <c r="J45" s="5" t="n">
-        <f aca="false">ROUND(I45*100, 2)</f>
-        <v>22.18</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0.0109783535146723</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>21.4700818215647</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0.99989206691851</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>0.222782258064516</v>
-      </c>
-      <c r="J46" s="5" t="n">
-        <f aca="false">ROUND(I46*100, 2)</f>
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0.00670274584596857</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>21.4410011537613</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0.99989206691851</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0.225806451612903</v>
-      </c>
-      <c r="J47" s="5" t="n">
-        <f aca="false">ROUND(I47*100, 2)</f>
-        <v>22.58</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.0123854950102548</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>21.4161131458898</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0.223790322580645</v>
-      </c>
-      <c r="J48" s="5" t="n">
-        <f aca="false">ROUND(I48*100, 2)</f>
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0.00714315863168375</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>21.506993509108</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0.999784133837021</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0.217237903225806</v>
-      </c>
-      <c r="J49" s="5" t="n">
-        <f aca="false">ROUND(I49*100, 2)</f>
-        <v>21.72</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0.011076194509116</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>21.4730826962379</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0.99989206691851</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>0.222782258064516</v>
-      </c>
-      <c r="J50" s="5" t="n">
-        <f aca="false">ROUND(I50*100, 2)</f>
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0.00558888575919596</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>21.4743613581504</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0.222278225806452</v>
-      </c>
-      <c r="J51" s="5" t="n">
-        <f aca="false">ROUND(I51*100, 2)</f>
-        <v>22.23</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J53" s="4" t="n">
-        <f aca="false">MAX(J2:J51)</f>
-        <v>22.58</v>
+      <c r="B36" s="7" t="n">
+        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
@@ -3935,12 +3412,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3970,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>84</v>
@@ -3992,24 +3469,24 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>32.2054225528427</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <v>31.7850760183027</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
+      <c r="F2" s="0" t="n">
+        <v>27.31730880902</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>24.8471674150036</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.0511602806260119</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.076108870967742</v>
       </c>
       <c r="J2" s="5" t="n">
         <f aca="false">ROUND(I2*100, 2)</f>
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,21 +3499,21 @@
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>30.6930126877778</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>31.7908437175135</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
+      <c r="F3" s="0" t="n">
+        <v>19.5728211305621</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>22.8094807286416</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.12779276848354</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.121975806451613</v>
       </c>
       <c r="J3" s="5" t="n">
         <f aca="false">ROUND(I3*100, 2)</f>
-        <v>0</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,21 +3521,21 @@
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>29.5629164970056</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>31.7143130148611</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
+      <c r="F4" s="0" t="n">
+        <v>14.9938266070675</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>21.8582078872188</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.182514840798705</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.149193548387097</v>
       </c>
       <c r="J4" s="5" t="n">
         <f aca="false">ROUND(I4*100, 2)</f>
-        <v>0</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,21 +3545,21 @@
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>28.3425748832278</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>31.8730787461804</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
+      <c r="F5" s="0" t="n">
+        <v>11.519238299675</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>21.6776409764444</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.23712898003238</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.15625</v>
       </c>
       <c r="J5" s="5" t="n">
         <f aca="false">ROUND(I5*100, 2)</f>
-        <v>0</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,21 +3569,21 @@
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>27.1181307507024</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>31.602838946927</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>0.000215866162978953</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>0.00504032258064516</v>
+      <c r="F6" s="0" t="n">
+        <v>8.83398922973238</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>21.4517958856398</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.294441446303292</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.174899193548387</v>
       </c>
       <c r="J6" s="5" t="n">
         <f aca="false">ROUND(I6*100, 2)</f>
-        <v>0.5</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,21 +3593,21 @@
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <v>25.878530221724</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>31.6616752378402</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0.00971397733405289</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>0.00957661290322581</v>
+      <c r="F7" s="0" t="n">
+        <v>6.6268661435205</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>21.3482943504087</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.353157042633567</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.182459677419355</v>
       </c>
       <c r="J7" s="5" t="n">
         <f aca="false">ROUND(I7*100, 2)</f>
-        <v>0.96</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,45 +3617,45 @@
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>24.8010859014405</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>31.6685883306688</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>0.0168375607123583</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>0.0136088709677419</v>
+      <c r="F8" s="0" t="n">
+        <v>4.79362044645784</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>21.449382228236</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.406907717215326</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.175907258064516</v>
       </c>
       <c r="J8" s="5" t="n">
         <f aca="false">ROUND(I8*100, 2)</f>
-        <v>1.36</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="n">
-        <v>23.7802713415781</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>31.7114606057444</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>0.0250404749055586</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>0.0216733870967742</v>
+      <c r="F9" s="0" t="n">
+        <v>3.2750474886063</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>21.5313729316957</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.481381543443065</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.177923387096774</v>
       </c>
       <c r="J9" s="5" t="n">
         <f aca="false">ROUND(I9*100, 2)</f>
-        <v>2.17</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,16 +3663,3744 @@
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="0" t="n">
+        <v>2.07086341058121</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>21.676734862789</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.576686454398273</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.176411290322581</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.15664394821789</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>21.7846235459851</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.736967080410146</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.181451612903226</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>18.15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.60374778928592</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>21.733059360135</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.885698866702644</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.367064922974036</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>21.8397846221924</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.94635725849973</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.182459677419355</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.231729371446053</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>21.8222614411385</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.973772261198057</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.186491935483871</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.153900097008981</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>21.7700989015641</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.9876956287102</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.191028225806452</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.110640753174369</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>21.6866066225113</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.992552617377226</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.197076612903226</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.0805080619732625</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>21.7199770404447</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.995574743658932</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.204133064516129</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.055658560857796</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>21.5231996351673</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.997733405288721</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.208165322580645</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.0389051507951373</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>21.5288964548419</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.999028602266595</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.212701612903226</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.0334962658435348</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>21.4777732356902</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.999244468429574</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.21320564516129</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.03142912304054</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>21.4236053343742</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.999136535348084</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.21320564516129</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.0259274188845272</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>21.4490985870361</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.999460334592552</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.215725806451613</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.0218035177602616</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>21.4693060844175</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.999568267674042</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.218245967741935</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.0195213511594231</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>21.4737568516885</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.220766129032258</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.0204795050632291</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>21.4304370264853</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.999352401511063</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.220262096774194</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.0177656889580998</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>21.4686648461126</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.999460334592552</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.215221774193548</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.0194483828380567</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>21.4791741524973</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.213709677419355</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.0248078346477607</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>21.522157115321</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.999460334592552</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.216229838709677</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.0184850686291586</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>21.4562990742345</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.999460334592552</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.216229838709677</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.015487599418299</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>21.4244487516342</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.219254032258064</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.0180460582210351</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>21.5679392660818</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.209677419354839</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.0177730866709369</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>21.5877485582905</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.999568267674042</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.214717741935484</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">ROUND(I32*100, 2)</f>
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.0152910849048328</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>21.4944060540968</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.999568267674042</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.217741935483871</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <f aca="false">ROUND(I33*100, 2)</f>
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.0197643225153137</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>21.55053464828</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.213709677419355</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <f aca="false">ROUND(I34*100, 2)</f>
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.015230333872634</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>21.4775393701369</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.222782258064516</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <f aca="false">ROUND(I35*100, 2)</f>
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.0154737295529615</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>21.442699924592</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.221270161290323</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <f aca="false">ROUND(I36*100, 2)</f>
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.0143659628750792</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>21.4174802841679</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.218245967741935</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <f aca="false">ROUND(I37*100, 2)</f>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.0122897187206659</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>21.4614120606453</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.999676200755532</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.219254032258064</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <f aca="false">ROUND(I38*100, 2)</f>
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.0109277569320449</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>21.4694879593388</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.219758064516129</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <f aca="false">ROUND(I39*100, 2)</f>
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.0113909826012347</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>21.4990145160306</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.999460334592552</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.217237903225806</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <f aca="false">ROUND(I40*100, 2)</f>
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.0129698573035192</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>21.4394792126071</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.217741935483871</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <f aca="false">ROUND(I41*100, 2)</f>
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.0119060819076964</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>21.4308253872779</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.219758064516129</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <f aca="false">ROUND(I42*100, 2)</f>
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.0107037490677074</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>21.4809996081937</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.220766129032258</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <f aca="false">ROUND(I43*100, 2)</f>
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.00657332679161302</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>21.4535196981122</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.99989206691851</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.221270161290323</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <f aca="false">ROUND(I44*100, 2)</f>
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.0101747877971222</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>21.4624520578692</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.99989206691851</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.221774193548387</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <f aca="false">ROUND(I45*100, 2)</f>
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.0109783535146723</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>21.4700818215647</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.99989206691851</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.222782258064516</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <f aca="false">ROUND(I46*100, 2)</f>
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.00670274584596857</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>21.4410011537613</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.99989206691851</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.225806451612903</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <f aca="false">ROUND(I47*100, 2)</f>
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.0123854950102548</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>21.4161131458898</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.223790322580645</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <f aca="false">ROUND(I48*100, 2)</f>
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.00714315863168375</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>21.506993509108</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.999784133837021</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.217237903225806</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <f aca="false">ROUND(I49*100, 2)</f>
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.011076194509116</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>21.4730826962379</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.99989206691851</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.222782258064516</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <f aca="false">ROUND(I50*100, 2)</f>
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.00558888575919596</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>21.4743613581504</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.222278225806452</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <f aca="false">ROUND(I51*100, 2)</f>
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <f aca="false">MAX(J2:J51)</f>
+        <v>22.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K113"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>35.757012432611</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>38.3481604053128</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.000647598488936859</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>35.2795147244762</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>35.7972871103594</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>34.2561768271893</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>34.2096680671938</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.000107933081489477</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.00403225806451613</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>32.4235560899416</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>36.038750310098</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0.00928224500809498</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>31.3261893007347</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>34.5886412589781</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.0110091743119266</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.0176411290322581</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>30.1612762792909</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>35.2831460275958</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.0154344306529951</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>29.1111046984076</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>36.3218199206937</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.0161899622234215</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.0388104838709677</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>27.9314254587815</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>35.5160304654029</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.0220183486238532</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0.0372983870967742</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>27.0335725425066</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>34.7881883190524</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.0256880733944954</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0.0347782258064516</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>26.3608308210543</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>35.3724667949061</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0.0266594711279007</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0.0236895161290323</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>23.7449494474589</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>34.1708233741022</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0.0287101996762008</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0.0267137096774194</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>22.930134620193</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>33.8801354439028</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0.0317323259579061</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0.030241935483871</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>22.5785499741564</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>33.8121136080834</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0.0317323259579061</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0.0317540322580645</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>22.3225731962382</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>33.7790860822124</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0.0327037236913114</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>22.1470698888277</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>33.8030074334914</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0.0347544522396114</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0.030241935483871</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>22.0131281997343</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>33.8391857762491</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0.0337830545062062</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0.0327620967741936</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>21.8645340717231</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>33.809995466663</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0.0347544522396114</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>21.726335698646</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>33.8082013284006</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.0345385860766325</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>21.6070675196805</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>33.8245678563272</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.0352941176470588</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0.0327620967741936</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>21.4808830541208</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>33.885309650052</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.0350782514840799</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0.030241935483871</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>21.3405196838873</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>33.8728395277454</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.0350782514840799</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0.0342741935483871</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>21.2195472721403</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>33.8978923674553</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.0352941176470588</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0.0307459677419355</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>21.0692850560674</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>33.9420318603516</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.0354020507285483</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0.0307459677419355</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>20.9137005006694</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>34.0494817918347</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.0356179168915273</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0.0297379032258064</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>20.7622710879018</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>34.0374442069761</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.0362655153804641</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0.0357862903225807</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>20.6350340444335</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>34.0450050600113</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.0361575822989746</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0.0367943548387097</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>20.4338182468898</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>34.0607267810452</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0.036697247706422</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0.0332661290322581</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>20.2763626815047</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>34.0750106073195</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0.0372369131138694</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0.0352822580645161</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>20.0708520291241</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>34.1856960173576</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0.0388559093362115</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0.0297379032258064</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>19.8516727157239</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>34.1409866579117</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0.0425256341068538</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0.0342741935483871</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.6490591554595</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>34.198842940792</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0.0460874257960065</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>0.0372983870967742</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">ROUND(I32*100, 2)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>5E-006</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>19.4231471296908</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>34.1440851765294</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.0501888828926066</v>
+      </c>
+      <c r="I33" s="9" t="n">
+        <v>0.0403225806451613</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <f aca="false">ROUND(I33*100, 2)</f>
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>19.1646887063337</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>34.2746924123456</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.0532110091743119</v>
+      </c>
+      <c r="I34" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <f aca="false">ROUND(I34*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>18.9493280446793</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>34.2717792141822</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.0540744738262278</v>
+      </c>
+      <c r="I35" s="9" t="n">
+        <v>0.0438508064516129</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <f aca="false">ROUND(I35*100, 2)</f>
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>18.6635739336256</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>34.4270250874181</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.0566648677819752</v>
+      </c>
+      <c r="I36" s="9" t="n">
+        <v>0.0428427419354839</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <f aca="false">ROUND(I36*100, 2)</f>
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>18.4162878461612</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>34.465040514546</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.0561252023745278</v>
+      </c>
+      <c r="I37" s="9" t="n">
+        <v>0.0448588709677419</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <f aca="false">ROUND(I37*100, 2)</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>18.1611059395738</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>34.5301731478783</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.0584997301672963</v>
+      </c>
+      <c r="I38" s="9" t="n">
+        <v>0.0408266129032258</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <f aca="false">ROUND(I38*100, 2)</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>17.890171713914</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>34.6408122893303</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.0582838640043173</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>0.0418346774193548</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <f aca="false">ROUND(I39*100, 2)</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>17.6138573172539</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>34.6426672166394</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.0594711279007016</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <v>0.0453629032258065</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <f aca="false">ROUND(I40*100, 2)</f>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>17.3066566249067</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>34.8037476078157</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.062277388019428</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>0.0428427419354839</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <f aca="false">ROUND(I41*100, 2)</f>
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>17.0602116878652</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>34.9455784213158</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <v>0.0663788451160281</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>0.0438508064516129</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <f aca="false">ROUND(I42*100, 2)</f>
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>16.7590220075135</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>34.939445249496</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>0.0698327037236913</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <v>0.0403225806451613</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <f aca="false">ROUND(I43*100, 2)</f>
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>16.4217964225888</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>35.0582457511656</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>0.0727468969239072</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <f aca="false">ROUND(I44*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>16.1582614211089</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>35.2061245825983</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>0.0739341608202914</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>0.0423387096774194</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <f aca="false">ROUND(I45*100, 2)</f>
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>15.8391355070885</v>
+      </c>
+      <c r="G46" s="9" t="n">
+        <v>35.2273399599137</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.0774959525094442</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <v>0.0403225806451613</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <f aca="false">ROUND(I46*100, 2)</f>
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>15.5489694965896</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>35.4358337156234</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.0805180787911495</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <f aca="false">ROUND(I47*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>15.2608957853693</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <v>35.4657589081795</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.0822450080949811</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <f aca="false">ROUND(I48*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>14.9708342942816</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>35.6165516761041</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.0856988667026444</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <f aca="false">ROUND(I49*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>14.6331021592479</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <v>35.645256780809</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.0892606583917971</v>
+      </c>
+      <c r="I50" s="9" t="n">
+        <v>0.045866935483871</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <f aca="false">ROUND(I50*100, 2)</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>14.3339594719028</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>35.7889143420804</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.0947652455477604</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>0.0418346774193548</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <f aca="false">ROUND(I51*100, 2)</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>14.0433244182301</v>
+      </c>
+      <c r="G52" s="9" t="n">
+        <v>35.7824958062941</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.0958445763626552</v>
+      </c>
+      <c r="I52" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <f aca="false">ROUND(I52*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>13.7867766277892</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>35.9317207336426</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.0990825688073395</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J53" s="5" t="n">
+        <f aca="false">ROUND(I53*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>13.5216447978424</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <v>35.9619626691264</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>0.102428494333513</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>0.0428427419354839</v>
+      </c>
+      <c r="J54" s="5" t="n">
+        <f aca="false">ROUND(I54*100, 2)</f>
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>13.2350359311956</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>36.0813090416693</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <v>0.106314085267134</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>0.0448588709677419</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <f aca="false">ROUND(I55*100, 2)</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>12.9395696664719</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>36.5085507054483</v>
+      </c>
+      <c r="H56" s="9" t="n">
+        <v>0.110739341608203</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <v>0.0413306451612903</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <f aca="false">ROUND(I56*100, 2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.6631438824015</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>36.3682099619219</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>0.114193200215866</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J57" s="5" t="n">
+        <f aca="false">ROUND(I57*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>12.3522739288939</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>36.372809133222</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.119266055045872</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <v>0.0438508064516129</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <f aca="false">ROUND(I58*100, 2)</f>
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>12.0835600783487</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>36.5586111007198</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.125526173772261</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>0.0398185483870968</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <f aca="false">ROUND(I59*100, 2)</f>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>11.8078864099139</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>36.6559608213363</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.129735563950351</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <v>0.0418346774193548</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <f aca="false">ROUND(I60*100, 2)</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>11.5227723388754</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>36.873168206984</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.133405288720993</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>0.0448588709677419</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <f aca="false">ROUND(I61*100, 2)</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>12.2013092302466</v>
+      </c>
+      <c r="G62" s="9" t="n">
+        <v>36.8526531342537</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.119158121964382</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <v>0.0418346774193548</v>
+      </c>
+      <c r="J62" s="5" t="n">
+        <f aca="false">ROUND(I62*100, 2)</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>12.5072886036205</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>37.2817641227476</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.115056664867782</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>0.0418346774193548</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <f aca="false">ROUND(I63*100, 2)</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>12.1086427146142</v>
+      </c>
+      <c r="G64" s="9" t="n">
+        <v>37.2179092899446</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.12379924446843</v>
+      </c>
+      <c r="I64" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <f aca="false">ROUND(I64*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>11.7275951719001</v>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>37.6027380420316</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.130167296276309</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>0.0448588709677419</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <f aca="false">ROUND(I65*100, 2)</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>11.49700156375</v>
+      </c>
+      <c r="G66" s="9" t="n">
+        <v>37.5575255117109</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.13394495412844</v>
+      </c>
+      <c r="I66" s="9" t="n">
+        <v>0.0443548387096774</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <f aca="false">ROUND(I66*100, 2)</f>
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.0591135644681</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>37.7587943538543</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.140960604425256</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <f aca="false">ROUND(I67*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>10.7358229770444</v>
+      </c>
+      <c r="G68" s="9" t="n">
+        <v>37.6913277410692</v>
+      </c>
+      <c r="H68" s="9" t="n">
+        <v>0.147868321640583</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>0.0448588709677419</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <f aca="false">ROUND(I68*100, 2)</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>10.25896660094</v>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>38.0113922857469</v>
+      </c>
+      <c r="H69" s="9" t="n">
+        <v>0.159309228278467</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>0.0443548387096774</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <f aca="false">ROUND(I69*100, 2)</f>
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>9.92062906696548</v>
+      </c>
+      <c r="G70" s="9" t="n">
+        <v>38.2841394485966</v>
+      </c>
+      <c r="H70" s="9" t="n">
+        <v>0.164813815434431</v>
+      </c>
+      <c r="I70" s="9" t="n">
+        <v>0.0372983870967742</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <f aca="false">ROUND(I70*100, 2)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>9.54360354310811</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>38.2391672442036</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <v>0.171829465731247</v>
+      </c>
+      <c r="I71" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <f aca="false">ROUND(I71*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>8.20430274218144</v>
+      </c>
+      <c r="G72" s="9" t="n">
+        <v>38.1196956019248</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <v>0.205720453318942</v>
+      </c>
+      <c r="I72" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <f aca="false">ROUND(I72*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>7.64013365525783</v>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>38.1714667043378</v>
+      </c>
+      <c r="H73" s="9" t="n">
+        <v>0.22266594711279</v>
+      </c>
+      <c r="I73" s="9" t="n">
+        <v>0.0488911290322581</v>
+      </c>
+      <c r="J73" s="5" t="n">
+        <f aca="false">ROUND(I73*100, 2)</f>
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>7.41583903467597</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>38.146423216789</v>
+      </c>
+      <c r="H74" s="9" t="n">
+        <v>0.230760928224501</v>
+      </c>
+      <c r="I74" s="9" t="n">
+        <v>0.0493951612903226</v>
+      </c>
+      <c r="J74" s="5" t="n">
+        <f aca="false">ROUND(I74*100, 2)</f>
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>7.23777571635444</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>38.1654405901509</v>
+      </c>
+      <c r="H75" s="9" t="n">
+        <v>0.233998920669185</v>
+      </c>
+      <c r="I75" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J75" s="5" t="n">
+        <f aca="false">ROUND(I75*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>7.10170670410008</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>38.0942388965238</v>
+      </c>
+      <c r="H76" s="9" t="n">
+        <v>0.23917970858068</v>
+      </c>
+      <c r="I76" s="9" t="n">
+        <v>0.0493951612903226</v>
+      </c>
+      <c r="J76" s="5" t="n">
+        <f aca="false">ROUND(I76*100, 2)</f>
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>6.97959733624363</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>38.1801576922017</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <v>0.246519158121964</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J77" s="5" t="n">
+        <f aca="false">ROUND(I77*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>6.87560006443771</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>38.1870229167323</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <v>0.246519158121964</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <f aca="false">ROUND(I78*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>6.76760670630532</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>38.1754456796954</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <v>0.251052347544522</v>
+      </c>
+      <c r="I79" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <f aca="false">ROUND(I79*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>6.6742773139406</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>38.2144932900706</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <v>0.252239611440907</v>
+      </c>
+      <c r="I80" s="9" t="n">
+        <v>0.0488911290322581</v>
+      </c>
+      <c r="J80" s="5" t="n">
+        <f aca="false">ROUND(I80*100, 2)</f>
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>6.61965615853579</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>38.2206247391239</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <v>0.254722072315165</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>0.0493951612903226</v>
+      </c>
+      <c r="J81" s="5" t="n">
+        <f aca="false">ROUND(I81*100, 2)</f>
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>6.47623305153474</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>38.2000178675498</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <v>0.259363194819212</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J82" s="5" t="n">
+        <f aca="false">ROUND(I82*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>6.45043253288743</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>38.2063674926758</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <v>0.260118726389638</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <v>0.0483870967741936</v>
+      </c>
+      <c r="J83" s="5" t="n">
+        <f aca="false">ROUND(I83*100, 2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>6.46789742190325</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <v>38.2404519357989</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <v>0.259471127900702</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J84" s="5" t="n">
+        <f aca="false">ROUND(I84*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>6.43766046303771</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>38.2285271921466</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <v>0.260874257960065</v>
+      </c>
+      <c r="I85" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J85" s="5" t="n">
+        <f aca="false">ROUND(I85*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>6.420881998584</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>38.2227641690162</v>
+      </c>
+      <c r="H86" s="9" t="n">
+        <v>0.260766324878575</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J86" s="5" t="n">
+        <f aca="false">ROUND(I86*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>6.39108219326861</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>38.1955401512884</v>
+      </c>
+      <c r="H87" s="9" t="n">
+        <v>0.261737722611981</v>
+      </c>
+      <c r="I87" s="9" t="n">
+        <v>0.0483870967741936</v>
+      </c>
+      <c r="J87" s="5" t="n">
+        <f aca="false">ROUND(I87*100, 2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>6.41887187679845</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>38.2260449317194</v>
+      </c>
+      <c r="H88" s="9" t="n">
+        <v>0.261737722611981</v>
+      </c>
+      <c r="I88" s="9" t="n">
+        <v>0.0483870967741936</v>
+      </c>
+      <c r="J88" s="5" t="n">
+        <f aca="false">ROUND(I88*100, 2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>6.37458711347256</v>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>38.2165391983524</v>
+      </c>
+      <c r="H89" s="9" t="n">
+        <v>0.263248785752833</v>
+      </c>
+      <c r="I89" s="9" t="n">
+        <v>0.0493951612903226</v>
+      </c>
+      <c r="J89" s="5" t="n">
+        <f aca="false">ROUND(I89*100, 2)</f>
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>6.36922270367741</v>
+      </c>
+      <c r="G90" s="9" t="n">
+        <v>38.2533495503087</v>
+      </c>
+      <c r="H90" s="9" t="n">
+        <v>0.262924986508365</v>
+      </c>
+      <c r="I90" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J90" s="5" t="n">
+        <f aca="false">ROUND(I90*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>6.35201902940218</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>38.2162476816485</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <v>0.264436049649218</v>
+      </c>
+      <c r="I91" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J91" s="5" t="n">
+        <f aca="false">ROUND(I91*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>6.3571190110941</v>
+      </c>
+      <c r="G92" s="9" t="n">
+        <v>38.2341110475602</v>
+      </c>
+      <c r="H92" s="9" t="n">
+        <v>0.264759848893686</v>
+      </c>
+      <c r="I92" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J92" s="5" t="n">
+        <f aca="false">ROUND(I92*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>6.33802954153441</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>38.2076749493999</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <v>0.262924986508365</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>0.0483870967741936</v>
+      </c>
+      <c r="J93" s="5" t="n">
+        <f aca="false">ROUND(I93*100, 2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>6.35575675099718</v>
+      </c>
+      <c r="G94" s="9" t="n">
+        <v>38.2098273000409</v>
+      </c>
+      <c r="H94" s="9" t="n">
+        <v>0.265407447382623</v>
+      </c>
+      <c r="I94" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J94" s="5" t="n">
+        <f aca="false">ROUND(I94*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>6.35934699234034</v>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>38.2512327624906</v>
+      </c>
+      <c r="H95" s="9" t="n">
+        <v>0.263032919589854</v>
+      </c>
+      <c r="I95" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J95" s="5" t="n">
+        <f aca="false">ROUND(I95*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>6.33212006831903</v>
+      </c>
+      <c r="G96" s="9" t="n">
+        <v>38.234809014105</v>
+      </c>
+      <c r="H96" s="9" t="n">
+        <v>0.266594711279007</v>
+      </c>
+      <c r="I96" s="9" t="n">
+        <v>0.047883064516129</v>
+      </c>
+      <c r="J96" s="5" t="n">
+        <f aca="false">ROUND(I96*100, 2)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>6.32217270644755</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>38.242075520177</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <v>0.265839179708581</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <v>0.0473790322580645</v>
+      </c>
+      <c r="J97" s="5" t="n">
+        <f aca="false">ROUND(I97*100, 2)</f>
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>6.36975376949527</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>38.265376429404</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <v>0.262601187263896</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J98" s="5" t="n">
+        <f aca="false">ROUND(I98*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>6.36561737029667</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>38.3016464479508</v>
+      </c>
+      <c r="H99" s="9" t="n">
+        <v>0.263788451160281</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>0.0463709677419355</v>
+      </c>
+      <c r="J99" s="5" t="n">
+        <f aca="false">ROUND(I99*100, 2)</f>
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>6.31370809609608</v>
+      </c>
+      <c r="G100" s="9" t="n">
+        <v>38.228403645177</v>
+      </c>
+      <c r="H100" s="9" t="n">
+        <v>0.26400431732326</v>
+      </c>
+      <c r="I100" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J100" s="5" t="n">
+        <f aca="false">ROUND(I100*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>6.33648144680297</v>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>38.2326646620227</v>
+      </c>
+      <c r="H101" s="9" t="n">
+        <v>0.265407447382623</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <v>0.0488911290322581</v>
+      </c>
+      <c r="J101" s="5" t="n">
+        <f aca="false">ROUND(I101*100, 2)</f>
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>6.33157177614767</v>
+      </c>
+      <c r="G102" s="9" t="n">
+        <v>38.2202081987935</v>
+      </c>
+      <c r="H102" s="9" t="n">
+        <v>0.264651915812196</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <v>0.045866935483871</v>
+      </c>
+      <c r="J102" s="5" t="n">
+        <f aca="false">ROUND(I102*100, 2)</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>6.30604319487529</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>38.22321602606</v>
+      </c>
+      <c r="H103" s="9" t="n">
+        <v>0.267134376686454</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <v>0.0453629032258065</v>
+      </c>
+      <c r="J103" s="5" t="n">
+        <f aca="false">ROUND(I103*100, 2)</f>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>6.33002833203245</v>
+      </c>
+      <c r="G104" s="9" t="n">
+        <v>38.2689067471412</v>
+      </c>
+      <c r="H104" s="9" t="n">
+        <v>0.26594711279007</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>0.0483870967741936</v>
+      </c>
+      <c r="J104" s="5" t="n">
+        <f aca="false">ROUND(I104*100, 2)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>6.35373316228036</v>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>38.2947844228437</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <v>0.263356718834323</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>0.045866935483871</v>
+      </c>
+      <c r="J105" s="5" t="n">
+        <f aca="false">ROUND(I105*100, 2)</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>6.34424168817816</v>
+      </c>
+      <c r="G106" s="9" t="n">
+        <v>38.2535504987163</v>
+      </c>
+      <c r="H106" s="9" t="n">
+        <v>0.26605504587156</v>
+      </c>
+      <c r="I106" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J106" s="5" t="n">
+        <f aca="false">ROUND(I106*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>6.34260400086561</v>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>38.2570557132844</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <v>0.264112250404749</v>
+      </c>
+      <c r="I107" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J107" s="5" t="n">
+        <f aca="false">ROUND(I107*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>6.32117370717666</v>
+      </c>
+      <c r="G108" s="9" t="n">
+        <v>38.2216508926884</v>
+      </c>
+      <c r="H108" s="9" t="n">
+        <v>0.265191581219644</v>
+      </c>
+      <c r="I108" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J108" s="5" t="n">
+        <f aca="false">ROUND(I108*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>6.36429347739758</v>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>38.2074208413401</v>
+      </c>
+      <c r="H109" s="9" t="n">
+        <v>0.262169454937938</v>
+      </c>
+      <c r="I109" s="9" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="J109" s="5" t="n">
+        <f aca="false">ROUND(I109*100, 2)</f>
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>6.36733474808645</v>
+      </c>
+      <c r="G110" s="9" t="n">
+        <v>38.2197121650942</v>
+      </c>
+      <c r="H110" s="9" t="n">
+        <v>0.264975715056665</v>
+      </c>
+      <c r="I110" s="9" t="n">
+        <v>0.0473790322580645</v>
+      </c>
+      <c r="J110" s="5" t="n">
+        <f aca="false">ROUND(I110*100, 2)</f>
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>6.35838345415967</v>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>38.2986115486391</v>
+      </c>
+      <c r="H111" s="9" t="n">
+        <v>0.262924986508365</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>0.0433467741935484</v>
+      </c>
+      <c r="J111" s="5" t="n">
+        <f aca="false">ROUND(I111*100, 2)</f>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="4" t="n">
+        <f aca="false">MAX(J2:J111)</f>
+        <v>4.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K103"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>32.2054225528427</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>31.7850760183027</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>30.6930126877778</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>31.7908437175135</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>29.5629164970056</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>31.7143130148611</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>28.3425748832278</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>31.8730787461804</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>27.1181307507024</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>31.602838946927</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.000215866162978953</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.00504032258064516</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>25.878530221724</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>31.6616752378402</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.00971397733405289</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.00957661290322581</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>24.8010859014405</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>31.6685883306688</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.0168375607123583</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.0136088709677419</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>23.7802713415781</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>31.7114606057444</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.0250404749055586</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0.0216733870967742</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="n">
         <v>22.8254813291547</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="9" t="n">
         <v>31.5738890863234</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.029681597409606</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="9" t="n">
         <v>0.0206653225806452</v>
       </c>
       <c r="J10" s="5" t="n">
@@ -4207,16 +7412,16 @@
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="9" t="n">
         <v>21.9382469716615</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9" t="n">
         <v>31.6214319044544</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="9" t="n">
         <v>0.0337830545062062</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="9" t="n">
         <v>0.0196572580645161</v>
       </c>
       <c r="J11" s="5" t="n">
@@ -4234,16 +7439,16 @@
       <c r="E12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="9" t="n">
         <v>21.0240284058704</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="9" t="n">
         <v>31.6891456111785</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>0.0361575822989746</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="9" t="n">
         <v>0.0221774193548387</v>
       </c>
       <c r="J12" s="5" t="n">
@@ -4255,16 +7460,16 @@
       <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="9" t="n">
         <v>20.2605557714999</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="9" t="n">
         <v>31.8347311942808</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="9" t="n">
         <v>0.0419859686994064</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="9" t="n">
         <v>0.0262096774193548</v>
       </c>
       <c r="J13" s="5" t="n">
@@ -4282,16 +7487,16 @@
       <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="9" t="n">
         <v>19.4179933526358</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="9" t="n">
         <v>31.8075881465789</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="9" t="n">
         <v>0.0438208310847275</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="9" t="n">
         <v>0.03125</v>
       </c>
       <c r="J14" s="5" t="n">
@@ -4303,16 +7508,16 @@
       <c r="E15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="9" t="n">
         <v>18.5743987890944</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="9" t="n">
         <v>31.7735166242046</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="9" t="n">
         <v>0.046195358877496</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="9" t="n">
         <v>0.030241935483871</v>
       </c>
       <c r="J15" s="5" t="n">
@@ -4325,21 +7530,21 @@
         <v>132</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="9" t="n">
         <v>17.8319083803098</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="9" t="n">
         <v>31.8445556394515</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="9" t="n">
         <v>0.0498650836481382</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="9" t="n">
         <v>0.0297379032258064</v>
       </c>
       <c r="J16" s="5" t="n">
@@ -4348,19 +7553,22 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="9" t="n">
         <v>17.1239574290326</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="9" t="n">
         <v>31.8239166505875</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="9" t="n">
         <v>0.0497571505666487</v>
       </c>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="9" t="n">
         <v>0.0307459677419355</v>
       </c>
       <c r="J17" s="5" t="n">
@@ -4375,22 +7583,19 @@
       <c r="B18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="9" t="n">
         <v>16.4061122328156</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="9" t="n">
         <v>31.9106161056026</v>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H18" s="9" t="n">
         <v>0.0521316783594172</v>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="I18" s="9" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J18" s="5" t="n">
@@ -4402,16 +7607,16 @@
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="9" t="n">
         <v>15.7201023801751</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="9" t="n">
         <v>31.8755968155399</v>
       </c>
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="9" t="n">
         <v>0.0560172692930383</v>
       </c>
-      <c r="I19" s="10" t="n">
+      <c r="I19" s="9" t="n">
         <v>0.0317540322580645</v>
       </c>
       <c r="J19" s="5" t="n">
@@ -4426,16 +7631,16 @@
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="9" t="n">
         <v>14.9873045825083</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="9" t="n">
         <v>31.9176310877646</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="9" t="n">
         <v>0.0587155963302752</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="9" t="n">
         <v>0.03125</v>
       </c>
       <c r="J20" s="5" t="n">
@@ -4453,16 +7658,16 @@
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="9" t="n">
         <v>14.2673491934474</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="9" t="n">
         <v>32.0618612227901</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H21" s="9" t="n">
         <v>0.0626011872638964</v>
       </c>
-      <c r="I21" s="10" t="n">
+      <c r="I21" s="9" t="n">
         <v>0.0287298387096774</v>
       </c>
       <c r="J21" s="5" t="n">
@@ -4480,16 +7685,16 @@
       <c r="E22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="9" t="n">
         <v>13.5929028322165</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="9" t="n">
         <v>31.9628589999291</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="9" t="n">
         <v>0.0649757150566649</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="9" t="n">
         <v>0.0337701612903226</v>
       </c>
       <c r="J22" s="5" t="n">
@@ -4501,16 +7706,16 @@
       <c r="E23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="9" t="n">
         <v>12.9671478292071</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="9" t="n">
         <v>32.022264172954</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="9" t="n">
         <v>0.0687533729087966</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="9" t="n">
         <v>0.0342741935483871</v>
       </c>
       <c r="J23" s="5" t="n">
@@ -4528,16 +7733,16 @@
       <c r="E24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="9" t="n">
         <v>12.33247029901</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="9" t="n">
         <v>32.0118035347231</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="9" t="n">
         <v>0.075876956287102</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="9" t="n">
         <v>0.0357862903225807</v>
       </c>
       <c r="J24" s="5" t="n">
@@ -4547,7 +7752,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.005</v>
@@ -4555,16 +7760,16 @@
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="9" t="n">
         <v>11.7750961960424</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="9" t="n">
         <v>31.9348042395807</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="9" t="n">
         <v>0.0807339449541284</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="9" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J25" s="5" t="n">
@@ -4574,7 +7779,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.05</v>
@@ -4582,37 +7787,40 @@
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F26" s="9" t="n">
         <v>11.1744501566797</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="9" t="n">
         <v>31.9729727468183</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="9" t="n">
         <v>0.089692390717755</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="9" t="n">
         <v>0.0383064516129032</v>
       </c>
       <c r="J26" s="5" t="n">
         <f aca="false">ROUND(I26*100, 2)</f>
         <v>3.83</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="9" t="n">
         <v>10.6421984947892</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="9" t="n">
         <v>31.9829955562468</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="9" t="n">
         <v>0.0969239071775499</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="9" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J27" s="5" t="n">
@@ -4624,16 +7832,16 @@
       <c r="E28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F28" s="9" t="n">
         <v>10.0165104168657</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="9" t="n">
         <v>31.8400386687248</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="9" t="n">
         <v>0.11538046411225</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="9" t="n">
         <v>0.0388104838709677</v>
       </c>
       <c r="J28" s="5" t="n">
@@ -4648,16 +7856,16 @@
       <c r="E29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="9" t="n">
         <v>9.53270384474053</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="9" t="n">
         <v>31.9748353035219</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="9" t="n">
         <v>0.132973556395035</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="9" t="n">
         <v>0.0378024193548387</v>
       </c>
       <c r="J29" s="5" t="n">
@@ -4675,16 +7883,16 @@
       <c r="E30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F30" s="9" t="n">
         <v>9.00006617583652</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="9" t="n">
         <v>31.9017870503087</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="9" t="n">
         <v>0.155207771181867</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="9" t="n">
         <v>0.0403225806451613</v>
       </c>
       <c r="J30" s="5" t="n">
@@ -4702,16 +7910,16 @@
       <c r="E31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="9" t="n">
         <v>8.45536373095196</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="9" t="n">
         <v>32.0326000336678</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="9" t="n">
         <v>0.172800863464652</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I31" s="9" t="n">
         <v>0.0327620967741936</v>
       </c>
       <c r="J31" s="5" t="n">
@@ -4729,16 +7937,16 @@
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="9" t="n">
         <v>8.05760832990882</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="9" t="n">
         <v>31.8120426054924</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H32" s="9" t="n">
         <v>0.197733405288721</v>
       </c>
-      <c r="I32" s="10" t="n">
+      <c r="I32" s="9" t="n">
         <v>0.0388104838709677</v>
       </c>
       <c r="J32" s="5" t="n">
@@ -4756,16 +7964,16 @@
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="9" t="n">
         <v>7.55346663774057</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="9" t="n">
         <v>31.7831491039645</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H33" s="9" t="n">
         <v>0.225148407987048</v>
       </c>
-      <c r="I33" s="10" t="n">
+      <c r="I33" s="9" t="n">
         <v>0.0398185483870968</v>
       </c>
       <c r="J33" s="5" t="n">
@@ -4777,16 +7985,16 @@
       <c r="E34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="9" t="n">
         <v>7.13667690104172</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="9" t="n">
         <v>31.9081094803349</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="9" t="n">
         <v>0.243712898003238</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I34" s="9" t="n">
         <v>0.0367943548387097</v>
       </c>
       <c r="J34" s="5" t="n">
@@ -4798,16 +8006,16 @@
       <c r="E35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="9" t="n">
         <v>6.66535740783906</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="G35" s="9" t="n">
         <v>31.7045055512459</v>
       </c>
-      <c r="H35" s="10" t="n">
+      <c r="H35" s="9" t="n">
         <v>0.279330814894765</v>
       </c>
-      <c r="I35" s="10" t="n">
+      <c r="I35" s="9" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J35" s="5" t="n">
@@ -4819,16 +8027,16 @@
       <c r="E36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="9" t="n">
         <v>6.23707972056661</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="G36" s="9" t="n">
         <v>31.7214019529281</v>
       </c>
-      <c r="H36" s="10" t="n">
+      <c r="H36" s="9" t="n">
         <v>0.308148947652455</v>
       </c>
-      <c r="I36" s="10" t="n">
+      <c r="I36" s="9" t="n">
         <v>0.045866935483871</v>
       </c>
       <c r="J36" s="5" t="n">
@@ -4840,16 +8048,16 @@
       <c r="E37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F37" s="9" t="n">
         <v>5.86674977059115</v>
       </c>
-      <c r="G37" s="10" t="n">
+      <c r="G37" s="9" t="n">
         <v>31.6723471610777</v>
       </c>
-      <c r="H37" s="10" t="n">
+      <c r="H37" s="9" t="n">
         <v>0.332433890987588</v>
       </c>
-      <c r="I37" s="10" t="n">
+      <c r="I37" s="9" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J37" s="5" t="n">
@@ -4861,16 +8069,16 @@
       <c r="E38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="9" t="n">
         <v>5.38739426978781</v>
       </c>
-      <c r="G38" s="10" t="n">
+      <c r="G38" s="9" t="n">
         <v>31.4828208185011</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H38" s="9" t="n">
         <v>0.370102536427415</v>
       </c>
-      <c r="I38" s="10" t="n">
+      <c r="I38" s="9" t="n">
         <v>0.0438508064516129</v>
       </c>
       <c r="J38" s="5" t="n">
@@ -4882,16 +8090,16 @@
       <c r="E39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F39" s="9" t="n">
         <v>5.05429393111598</v>
       </c>
-      <c r="G39" s="10" t="n">
+      <c r="G39" s="9" t="n">
         <v>31.4291965115455</v>
       </c>
-      <c r="H39" s="10" t="n">
+      <c r="H39" s="9" t="n">
         <v>0.396977873718295</v>
       </c>
-      <c r="I39" s="10" t="n">
+      <c r="I39" s="9" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J39" s="5" t="n">
@@ -4903,16 +8111,16 @@
       <c r="E40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F40" s="9" t="n">
         <v>4.70564357677281</v>
       </c>
-      <c r="G40" s="10" t="n">
+      <c r="G40" s="9" t="n">
         <v>31.4504491744503</v>
       </c>
-      <c r="H40" s="10" t="n">
+      <c r="H40" s="9" t="n">
         <v>0.42687533729088</v>
       </c>
-      <c r="I40" s="10" t="n">
+      <c r="I40" s="9" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J40" s="5" t="n">
@@ -4924,16 +8132,16 @@
       <c r="E41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F41" s="10" t="n">
+      <c r="F41" s="9" t="n">
         <v>4.48002957747038</v>
       </c>
-      <c r="G41" s="10" t="n">
+      <c r="G41" s="9" t="n">
         <v>31.4779073653683</v>
       </c>
-      <c r="H41" s="10" t="n">
+      <c r="H41" s="9" t="n">
         <v>0.446087425796006</v>
       </c>
-      <c r="I41" s="10" t="n">
+      <c r="I41" s="9" t="n">
         <v>0.046875</v>
       </c>
       <c r="J41" s="5" t="n">
@@ -4945,16 +8153,16 @@
       <c r="E42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="F42" s="10" t="n">
+      <c r="F42" s="9" t="n">
         <v>4.10678492523951</v>
       </c>
-      <c r="G42" s="10" t="n">
+      <c r="G42" s="9" t="n">
         <v>31.3915906106272</v>
       </c>
-      <c r="H42" s="10" t="n">
+      <c r="H42" s="9" t="n">
         <v>0.478791149487318</v>
       </c>
-      <c r="I42" s="10" t="n">
+      <c r="I42" s="9" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J42" s="5" t="n">
@@ -4966,16 +8174,16 @@
       <c r="E43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="F43" s="9" t="n">
         <v>3.76624537075267</v>
       </c>
-      <c r="G43" s="10" t="n">
+      <c r="G43" s="9" t="n">
         <v>31.3019497779108</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H43" s="9" t="n">
         <v>0.51138694009714</v>
       </c>
-      <c r="I43" s="10" t="n">
+      <c r="I43" s="9" t="n">
         <v>0.0564516129032258</v>
       </c>
       <c r="J43" s="5" t="n">
@@ -4987,16 +8195,16 @@
       <c r="E44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="F44" s="9" t="n">
         <v>3.55156113274086</v>
       </c>
-      <c r="G44" s="10" t="n">
+      <c r="G44" s="9" t="n">
         <v>31.2515402763121</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="H44" s="9" t="n">
         <v>0.531462493254182</v>
       </c>
-      <c r="I44" s="10" t="n">
+      <c r="I44" s="9" t="n">
         <v>0.0524193548387097</v>
       </c>
       <c r="J44" s="5" t="n">
@@ -5008,16 +8216,16 @@
       <c r="E45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F45" s="9" t="n">
         <v>3.23742519899503</v>
       </c>
-      <c r="G45" s="10" t="n">
+      <c r="G45" s="9" t="n">
         <v>31.1630922132923</v>
       </c>
-      <c r="H45" s="10" t="n">
+      <c r="H45" s="9" t="n">
         <v>0.553588774959525</v>
       </c>
-      <c r="I45" s="10" t="n">
+      <c r="I45" s="9" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J45" s="5" t="n">
@@ -5029,16 +8237,16 @@
       <c r="E46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F46" s="10" t="n">
+      <c r="F46" s="9" t="n">
         <v>3.04183097979344</v>
       </c>
-      <c r="G46" s="10" t="n">
+      <c r="G46" s="9" t="n">
         <v>31.0902218972483</v>
       </c>
-      <c r="H46" s="10" t="n">
+      <c r="H46" s="9" t="n">
         <v>0.573340528872099</v>
       </c>
-      <c r="I46" s="10" t="n">
+      <c r="I46" s="9" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J46" s="5" t="n">
@@ -5050,16 +8258,16 @@
       <c r="E47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F47" s="10" t="n">
+      <c r="F47" s="9" t="n">
         <v>2.73321991769674</v>
       </c>
-      <c r="G47" s="10" t="n">
+      <c r="G47" s="9" t="n">
         <v>31.1427854722546</v>
       </c>
-      <c r="H47" s="10" t="n">
+      <c r="H47" s="9" t="n">
         <v>0.604964921748516</v>
       </c>
-      <c r="I47" s="10" t="n">
+      <c r="I47" s="9" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J47" s="5" t="n">
@@ -5071,16 +8279,16 @@
       <c r="E48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F48" s="10" t="n">
+      <c r="F48" s="9" t="n">
         <v>2.51038714191171</v>
       </c>
-      <c r="G48" s="10" t="n">
+      <c r="G48" s="9" t="n">
         <v>31.0706272740518</v>
       </c>
-      <c r="H48" s="10" t="n">
+      <c r="H48" s="9" t="n">
         <v>0.632379924446843</v>
       </c>
-      <c r="I48" s="10" t="n">
+      <c r="I48" s="9" t="n">
         <v>0.0539314516129032</v>
       </c>
       <c r="J48" s="5" t="n">
@@ -5092,16 +8300,16 @@
       <c r="E49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="9" t="n">
         <v>2.30612591518561</v>
       </c>
-      <c r="G49" s="10" t="n">
+      <c r="G49" s="9" t="n">
         <v>30.8939462477161</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H49" s="9" t="n">
         <v>0.659363194819212</v>
       </c>
-      <c r="I49" s="10" t="n">
+      <c r="I49" s="9" t="n">
         <v>0.0544354838709677</v>
       </c>
       <c r="J49" s="5" t="n">
@@ -5113,16 +8321,16 @@
       <c r="E50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F50" s="9" t="n">
         <v>2.08227708310098</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G50" s="9" t="n">
         <v>30.9205594216624</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H50" s="9" t="n">
         <v>0.680733944954128</v>
       </c>
-      <c r="I50" s="10" t="n">
+      <c r="I50" s="9" t="n">
         <v>0.0498991935483871</v>
       </c>
       <c r="J50" s="5" t="n">
@@ -5134,16 +8342,16 @@
       <c r="E51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F51" s="10" t="n">
+      <c r="F51" s="9" t="n">
         <v>1.88979074480208</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="G51" s="9" t="n">
         <v>30.8866706355926</v>
       </c>
-      <c r="H51" s="10" t="n">
+      <c r="H51" s="9" t="n">
         <v>0.709552077711819</v>
       </c>
-      <c r="I51" s="10" t="n">
+      <c r="I51" s="9" t="n">
         <v>0.0544354838709677</v>
       </c>
       <c r="J51" s="5" t="n">
@@ -11196,7 +14404,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,10 @@
     <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sheet9_CosFacev2" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet10" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Sheet10_2" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sheet11" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="ResNet152" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet10_2" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet11" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="196">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -545,6 +546,45 @@
   </si>
   <si>
     <t xml:space="preserve">Try 0.005 for 5 epochs and observe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9139.79 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9091.72 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9090.64 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9104.2 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092.04 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9096.46 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9785.52 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (1-3 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (4-9 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (10-14 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (15-18 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR (19 - 20 epochs)</t>
   </si>
   <si>
     <t xml:space="preserve">LFW</t>
@@ -592,7 +632,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -623,6 +663,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -652,7 +697,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +816,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
@@ -802,10 +847,10 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -816,6 +861,1506 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9_CosFacev2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9_CosFacev2!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="5">
+                  <c:v>12.1770183577442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.46533612455439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.04278930845296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.75837207925859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7770962131913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.84462499935069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.24736214751015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.89338007572037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.72316956661244</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.59844804221987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.35211673340373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.47722246807918</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.30535496922356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.34520379858747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.26860480393901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.99841693977919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.94578128889338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.89313391848732</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.93327682306058</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.91540093547538</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.89926706602487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.88317167506195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.90243711625503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.89655458483325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.88611496119723</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.85546809364612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.85170613634705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9_CosFacev2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9_CosFacev2!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="5">
+                  <c:v>12.4412882262384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.04366729755213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.61230992955584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.57069439020707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.59724027214569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.77543494417236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.12295760653316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.96790356587812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.87167525425298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.80911507785444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.71208068093327</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.75689138622721</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.73566282642874</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.67980655837827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.65064623549892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.52235583082306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.51130148552026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.50515336927749</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.49935400870585</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.49406507777677</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.48915730897902</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.48834122967358</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.48137446848447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.47691461381667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.47069628981513</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.46726604948175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.46211526598808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="84188364"/>
+        <c:axId val="53363786"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84188364"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53363786"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53363786"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84188364"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9_CosFacev2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9_CosFacev2!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="5">
+                  <c:v>0.0804830615249962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.331848042655808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.425621221251564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.441483189688207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43646614741603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.431412395078447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.599147553639095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.638120333018256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.655996202762357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.668502527734884</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.699915180427825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.680623933717508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.703018791045234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.692390046377049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.700890251287911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.741016070206819</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.748791304995596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.755986692493951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.750271729621566</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.752600994005525</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.754709997997047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.756834673536959</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7531567972765</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.753899585734426</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.755150304103176</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.759690544882563</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.760143731713396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9_CosFacev2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9_CosFacev2!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="5">
+                  <c:v>0.0714245231982001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.370465337947498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.394528264621779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.393131993164624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.395385262724017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.380283891355311</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.542692760169339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.556758520604879</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.565941624518046</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.571885653439585</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.583016324182288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.575722394442393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.576764875099826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.583574489278937</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.585547817574472</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60296943831417</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.603743999725211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.604643933604115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.604850025332108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.605330906030759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.605837548195409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.606112337166067</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.606266905962062</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.606764960971379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.607700960902682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.607943118683074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.608789812198913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="36873126"/>
+        <c:axId val="79764666"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="36873126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79764666"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79764666"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36873126"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet152!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet152!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.2089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet152!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet152!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28.8938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="83822741"/>
+        <c:axId val="27783689"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83822741"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27783689"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27783689"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83822741"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet152!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet152!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet152!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet152!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="17332449"/>
+        <c:axId val="34385338"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17332449"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34385338"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34385338"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17332449"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,9 +2374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>414720</xdr:colOff>
+      <xdr:colOff>414360</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -845,7 +2390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3116520"/>
-          <a:ext cx="4887000" cy="2676960"/>
+          <a:ext cx="4886640" cy="2676600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -882,7 +2427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="502920"/>
-          <a:ext cx="4864320" cy="2676960"/>
+          <a:ext cx="4863960" cy="2676600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +2453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3561840"/>
-          <a:ext cx="3803040" cy="2818800"/>
+          <a:ext cx="3802680" cy="2818440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +2490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -961,7 +2506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3524760"/>
-          <a:ext cx="4501800" cy="2724840"/>
+          <a:ext cx="4501440" cy="2724480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,9 +2527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -998,7 +2543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="343080"/>
-          <a:ext cx="3763800" cy="2818800"/>
+          <a:ext cx="3763440" cy="2818440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,9 +2564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>71640</xdr:colOff>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1035,7 +2580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="304920"/>
-          <a:ext cx="4349520" cy="2798640"/>
+          <a:ext cx="4349160" cy="2798280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,10 +2592,135 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>397440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812880</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2798280" y="6492960"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>249480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>249120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7994520" y="6498360"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276840</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3674880" y="4692960"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1296360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>535320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9041400" y="4653000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -1061,13 +2731,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 11" descr=""/>
+        <xdr:cNvPr id="26" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1077,7 +2747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381480" cy="2747520"/>
+          <a:ext cx="3381120" cy="2747160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,13 +2768,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>545040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 12" descr=""/>
+        <xdr:cNvPr id="27" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1114,7 +2784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128840" cy="2840400"/>
+          <a:ext cx="4128480" cy="2840040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,13 +2805,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>364320</xdr:colOff>
+      <xdr:colOff>363960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 13" descr=""/>
+        <xdr:cNvPr id="28" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1151,7 +2821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11199960" y="557280"/>
-          <a:ext cx="3765240" cy="2818440"/>
+          <a:ext cx="3764880" cy="2818080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,13 +2842,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>359280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 14" descr=""/>
+        <xdr:cNvPr id="29" name="Image 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1188,86 +2858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11155680" y="3901680"/>
-          <a:ext cx="3804840" cy="2818440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 11_0" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381480" cy="2747520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 12_0" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128840" cy="2840400"/>
+          <a:ext cx="3804480" cy="2818080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,13 +2884,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 11" descr=""/>
+        <xdr:cNvPr id="30" name="Image 11_0" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1309,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381480" cy="2747520"/>
+          <a:ext cx="3381120" cy="2747160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,13 +2921,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>545040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 12" descr=""/>
+        <xdr:cNvPr id="31" name="Image 12_0" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1346,7 +2937,86 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128840" cy="2840400"/>
+          <a:ext cx="4128480" cy="2840040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>168840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764840" y="4782600"/>
+          <a:ext cx="3381120" cy="2747160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>545040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16342560" y="594720"/>
+          <a:ext cx="4128480" cy="2840040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,13 +3037,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>477720</xdr:colOff>
+      <xdr:colOff>477360</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 15" descr=""/>
+        <xdr:cNvPr id="34" name="Image 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1383,7 +3053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11273760" y="5652000"/>
-          <a:ext cx="3804840" cy="2826360"/>
+          <a:ext cx="3804480" cy="2826000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,13 +3074,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>480960</xdr:colOff>
+      <xdr:colOff>480600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 16" descr=""/>
+        <xdr:cNvPr id="35" name="Image 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1420,7 +3090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11316600" y="2029320"/>
-          <a:ext cx="3765240" cy="2818800"/>
+          <a:ext cx="3764880" cy="2818440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,9 +3116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,7 +3132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="549000"/>
-          <a:ext cx="5099040" cy="2532240"/>
+          <a:ext cx="5098680" cy="2531880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,9 +3158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1504,7 +3174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5550840" cy="2945880"/>
+          <a:ext cx="5550480" cy="2945520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,9 +3195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1541,7 +3211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3126960"/>
-          <a:ext cx="5657400" cy="2937960"/>
+          <a:ext cx="5657040" cy="2937600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,9 +3237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1583,7 +3253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="297360"/>
-          <a:ext cx="5030640" cy="2753280"/>
+          <a:ext cx="5030280" cy="2752920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,9 +3279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1625,7 +3295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3551040"/>
-          <a:ext cx="5345280" cy="2948400"/>
+          <a:ext cx="5344920" cy="2948040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,9 +3316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1662,7 +3332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="334800"/>
-          <a:ext cx="5343480" cy="2943720"/>
+          <a:ext cx="5343120" cy="2943360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,9 +3358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1704,7 +3374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3248280"/>
-          <a:ext cx="6049080" cy="3643920"/>
+          <a:ext cx="6048720" cy="3643560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1725,9 +3395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1741,7 +3411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="175320"/>
-          <a:ext cx="6070680" cy="3043440"/>
+          <a:ext cx="6070320" cy="3043080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,9 +3437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1783,7 +3453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4281480"/>
-          <a:ext cx="4894920" cy="3594960"/>
+          <a:ext cx="4894560" cy="3594600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,9 +3474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,7 +3490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="345960"/>
-          <a:ext cx="4777560" cy="3602160"/>
+          <a:ext cx="4777200" cy="3601800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1846,9 +3516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1862,7 +3532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4100040"/>
-          <a:ext cx="4717800" cy="3496320"/>
+          <a:ext cx="4717440" cy="3495960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,9 +3553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>223200</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1899,7 +3569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="441720"/>
-          <a:ext cx="4689360" cy="3511080"/>
+          <a:ext cx="4689000" cy="3510720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,9 +3595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
+      <xdr:colOff>280080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1941,7 +3611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4316760"/>
-          <a:ext cx="5018400" cy="3567240"/>
+          <a:ext cx="5018040" cy="3566880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +3632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1978,7 +3648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="244800"/>
-          <a:ext cx="4758120" cy="3525480"/>
+          <a:ext cx="4757760" cy="3525120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,9 +3669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>585000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,7 +3685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3381480" cy="2633400"/>
+          <a:ext cx="3381120" cy="2633040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2036,9 +3706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2052,7 +3722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="571680"/>
-          <a:ext cx="4128840" cy="2726280"/>
+          <a:ext cx="4128480" cy="2725920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3022,7 +4692,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3874,6 +5544,539 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>32.689</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>28.8938</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>23.2089</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>17.5846</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>13.5858</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>11.073</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.0903</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>9.03</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8.7197</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>8.2521</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.1685</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.2018</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>20.18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7.2197</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7.2054</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.2412</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.2614</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>26.14</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.2492</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6.4414</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.3027</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>31.2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5.5244</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5.7917</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>36.26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <f aca="false">MAX(J2:J21)</f>
+        <v>36.26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">B26/2</f>
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">B27/2</f>
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B28/2</f>
+        <v>0.000125</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B29/2</f>
+        <v>6.25E-005</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3901,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3913,10 +6116,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -3952,7 +6155,7 @@
         <v>7.61</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,7 +6332,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -4295,7 +6498,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -4319,7 +6522,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
@@ -5118,7 +7321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5146,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5158,10 +7361,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -5197,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,7 +7692,7 @@
         <v>132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>14</v>
@@ -5537,7 +7740,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -5561,7 +7764,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
@@ -7617,14 +9820,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -7645,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7657,10 +9860,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -7696,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7873,7 +10076,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -8039,7 +10242,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -8063,7 +10266,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
@@ -8261,7 +10464,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.005</v>
@@ -8286,12 +10489,12 @@
         <v>3.83</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.05</v>

--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="207">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -569,7 +569,40 @@
     <t xml:space="preserve">9785.52 secs</t>
   </si>
   <si>
+    <t xml:space="preserve">9511.74 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9108.32 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9098.64 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9100.4 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9103.62 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9112.3 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9102.93 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9104.27 secs</t>
+  </si>
+  <si>
     <t xml:space="preserve">ResNet-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9159 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9337 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9489 secs</t>
   </si>
   <si>
     <t xml:space="preserve">LR (1-3 epochs)</t>
@@ -863,7 +896,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -919,6 +952,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1065,6 +1099,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1173,11 +1208,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84188364"/>
-        <c:axId val="53363786"/>
+        <c:axId val="65375921"/>
+        <c:axId val="16301946"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84188364"/>
+        <c:axId val="65375921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53363786"/>
+        <c:crossAx val="16301946"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,7 +1248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53363786"/>
+        <c:axId val="16301946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1263,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1250,7 +1285,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84188364"/>
+        <c:crossAx val="65375921"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,14 +1326,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1354,6 +1389,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1500,6 +1536,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1608,11 +1645,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36873126"/>
-        <c:axId val="79764666"/>
+        <c:axId val="38105665"/>
+        <c:axId val="99044415"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36873126"/>
+        <c:axId val="38105665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1677,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79764666"/>
+        <c:crossAx val="99044415"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1648,7 +1685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79764666"/>
+        <c:axId val="99044415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1700,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1685,7 +1722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36873126"/>
+        <c:crossAx val="38105665"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1726,14 +1763,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1789,6 +1826,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1799,10 +1837,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$F$2:$F$8</c:f>
+              <c:f>ResNet152!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>32.689</c:v>
                 </c:pt>
@@ -1823,6 +1861,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.5244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0868</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,6 +1946,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1885,10 +1957,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$G$2:$G$8</c:f>
+              <c:f>ResNet152!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>28.8938</c:v>
                 </c:pt>
@@ -1909,6 +1981,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.7917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8822</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,11 +2028,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83822741"/>
-        <c:axId val="27783689"/>
+        <c:axId val="36571932"/>
+        <c:axId val="8798628"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83822741"/>
+        <c:axId val="36571932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +2060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27783689"/>
+        <c:crossAx val="8798628"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27783689"/>
+        <c:axId val="8798628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +2083,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2000,7 +2105,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83822741"/>
+        <c:crossAx val="36571932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2041,14 +2146,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2104,6 +2209,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2114,10 +2220,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$H$2:$H$8</c:f>
+              <c:f>ResNet152!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2138,6 +2244,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7051</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,6 +2329,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2200,10 +2340,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$I$2:$I$8</c:f>
+              <c:f>ResNet152!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2224,6 +2364,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,11 +2411,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17332449"/>
-        <c:axId val="34385338"/>
+        <c:axId val="8328680"/>
+        <c:axId val="77204525"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17332449"/>
+        <c:axId val="8328680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34385338"/>
+        <c:crossAx val="77204525"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2278,7 +2451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34385338"/>
+        <c:axId val="77204525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2466,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2315,7 +2488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17332449"/>
+        <c:crossAx val="8328680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2356,7 +2529,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2374,9 +2547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>412560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2390,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3116520"/>
-          <a:ext cx="4886640" cy="2676600"/>
+          <a:ext cx="4884840" cy="2674800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2411,9 +2584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>480960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2427,7 +2600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="502920"/>
-          <a:ext cx="4863960" cy="2676600"/>
+          <a:ext cx="4862160" cy="2674800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2453,9 +2626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2469,7 +2642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3561840"/>
-          <a:ext cx="3802680" cy="2818440"/>
+          <a:ext cx="3800880" cy="2816640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2490,9 +2663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2506,7 +2679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3524760"/>
-          <a:ext cx="4501440" cy="2724480"/>
+          <a:ext cx="4499640" cy="2722680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2527,9 +2700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123480</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2543,7 +2716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="343080"/>
-          <a:ext cx="3763440" cy="2818440"/>
+          <a:ext cx="3761640" cy="2816640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,9 +2737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2580,7 +2753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="304920"/>
-          <a:ext cx="4349160" cy="2798280"/>
+          <a:ext cx="4347360" cy="2796480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2601,9 +2774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>812880</xdr:colOff>
+      <xdr:colOff>811080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2612,7 +2785,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6492960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2631,9 +2804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2642,7 +2815,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6498360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2660,15 +2833,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:colOff>220680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1395360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2676,8 +2849,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3674880" y="4692960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3382200" y="4286160"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2689,16 +2862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1296360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2706,8 +2879,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9041400" y="4653000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9426600" y="4250880"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2731,9 +2904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2747,7 +2920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381120" cy="2747160"/>
+          <a:ext cx="3379320" cy="2745360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2768,9 +2941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2784,7 +2957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128480" cy="2840040"/>
+          <a:ext cx="4126680" cy="2838240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2805,9 +2978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>362160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2821,7 +2994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11199960" y="557280"/>
-          <a:ext cx="3764880" cy="2818080"/>
+          <a:ext cx="3763080" cy="2816280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2842,9 +3015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>359280</xdr:colOff>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2858,7 +3031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11155680" y="3901680"/>
-          <a:ext cx="3804480" cy="2818080"/>
+          <a:ext cx="3802680" cy="2816280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2884,9 +3057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2900,7 +3073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381120" cy="2747160"/>
+          <a:ext cx="3379320" cy="2745360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,9 +3094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2937,7 +3110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128480" cy="2840040"/>
+          <a:ext cx="4126680" cy="2838240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2963,9 +3136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2979,7 +3152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3381120" cy="2747160"/>
+          <a:ext cx="3379320" cy="2745360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,9 +3173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3016,7 +3189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4128480" cy="2840040"/>
+          <a:ext cx="4126680" cy="2838240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3037,9 +3210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>477360</xdr:colOff>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3053,7 +3226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11273760" y="5652000"/>
-          <a:ext cx="3804480" cy="2826000"/>
+          <a:ext cx="3802680" cy="2824200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3074,9 +3247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>480600</xdr:colOff>
+      <xdr:colOff>478800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3090,7 +3263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11316600" y="2029320"/>
-          <a:ext cx="3764880" cy="2818440"/>
+          <a:ext cx="3763080" cy="2816640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3116,9 +3289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3132,7 +3305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="549000"/>
-          <a:ext cx="5098680" cy="2531880"/>
+          <a:ext cx="5096880" cy="2530080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3158,9 +3331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>406440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3174,7 +3347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5550480" cy="2945520"/>
+          <a:ext cx="5548680" cy="2943720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3195,9 +3368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
+      <xdr:colOff>414360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3211,7 +3384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3126960"/>
-          <a:ext cx="5657040" cy="2937600"/>
+          <a:ext cx="5655240" cy="2935800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>208440</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3253,7 +3426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="297360"/>
-          <a:ext cx="5030280" cy="2752920"/>
+          <a:ext cx="5028480" cy="2751120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3279,9 +3452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3295,7 +3468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3551040"/>
-          <a:ext cx="5344920" cy="2948040"/>
+          <a:ext cx="5343120" cy="2946240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3316,9 +3489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3332,7 +3505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="334800"/>
-          <a:ext cx="5343120" cy="2943360"/>
+          <a:ext cx="5341320" cy="2941560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,9 +3531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>39240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3374,7 +3547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3248280"/>
-          <a:ext cx="6048720" cy="3643560"/>
+          <a:ext cx="6046920" cy="3641760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,9 +3568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>39240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3411,7 +3584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="175320"/>
-          <a:ext cx="6070320" cy="3043080"/>
+          <a:ext cx="6068520" cy="3041280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3437,9 +3610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3453,7 +3626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4281480"/>
-          <a:ext cx="4894560" cy="3594600"/>
+          <a:ext cx="4892760" cy="3592800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3474,9 +3647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>529920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3490,7 +3663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="345960"/>
-          <a:ext cx="4777200" cy="3601800"/>
+          <a:ext cx="4775400" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3516,9 +3689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>207000</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3532,7 +3705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4100040"/>
-          <a:ext cx="4717440" cy="3495960"/>
+          <a:ext cx="4715640" cy="3494160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3553,9 +3726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3569,7 +3742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="441720"/>
-          <a:ext cx="4689000" cy="3510720"/>
+          <a:ext cx="4687200" cy="3508920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,9 +3768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>280080</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3611,7 +3784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4316760"/>
-          <a:ext cx="5018040" cy="3566880"/>
+          <a:ext cx="5016240" cy="3565080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,9 +3805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3648,7 +3821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="244800"/>
-          <a:ext cx="4757760" cy="3525120"/>
+          <a:ext cx="4755960" cy="3523320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3669,9 +3842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3685,7 +3858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3381120" cy="2633040"/>
+          <a:ext cx="3379320" cy="2631240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3706,9 +3879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3722,7 +3895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="571680"/>
-          <a:ext cx="4128480" cy="2725920"/>
+          <a:ext cx="4126680" cy="2724120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4687,12 +4860,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5531,6 +5704,7 @@
         <v>0.0005</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5551,9 +5725,9 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5799,18 +5973,48 @@
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>4.964</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5.3701</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.4022</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.3971</v>
+      </c>
       <c r="J9" s="2" t="n">
         <f aca="false">ROUND(I9*100, 2)</f>
-        <v>0</v>
+        <v>39.71</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4.9878</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.4412</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.4289</v>
+      </c>
       <c r="J10" s="2" t="n">
         <f aca="false">ROUND(I10*100, 2)</f>
-        <v>0</v>
+        <v>42.89</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,18 +6027,48 @@
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <v>3.4401</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4.168</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5521</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.5104</v>
+      </c>
       <c r="J11" s="2" t="n">
         <f aca="false">ROUND(I11*100, 2)</f>
-        <v>0</v>
+        <v>51.04</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <v>3.1292</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.0109</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.5241</v>
+      </c>
       <c r="J12" s="2" t="n">
         <f aca="false">ROUND(I12*100, 2)</f>
-        <v>0</v>
+        <v>52.41</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,18 +6081,48 @@
       <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>2.9562</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3.9137</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5951</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.5344</v>
+      </c>
       <c r="J13" s="2" t="n">
         <f aca="false">ROUND(I13*100, 2)</f>
-        <v>0</v>
+        <v>53.44</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>2.8181</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3.8822</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.6085</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5358</v>
+      </c>
       <c r="J14" s="2" t="n">
         <f aca="false">ROUND(I14*100, 2)</f>
-        <v>0</v>
+        <v>53.58</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,18 +6135,48 @@
       <c r="E15" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>2.6967</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3.7382</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.553</v>
+      </c>
       <c r="J15" s="2" t="n">
         <f aca="false">ROUND(I15*100, 2)</f>
-        <v>0</v>
+        <v>55.3</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <v>2.0868</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>3.3002</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.7051</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.6052</v>
+      </c>
       <c r="J16" s="2" t="n">
         <f aca="false">ROUND(I16*100, 2)</f>
-        <v>0</v>
+        <v>60.52</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,23 +6184,53 @@
         <v>134</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <v>1.9185</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.7242</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.6104</v>
+      </c>
       <c r="J17" s="2" t="n">
         <f aca="false">ROUND(I17*100, 2)</f>
-        <v>0</v>
+        <v>61.04</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>1.8235</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3.2254</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.7332</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.6129</v>
+      </c>
       <c r="J18" s="2" t="n">
         <f aca="false">ROUND(I18*100, 2)</f>
-        <v>0</v>
+        <v>61.29</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5919,9 +6243,24 @@
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>1.7483</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3.2028</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.7405</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.6151</v>
+      </c>
       <c r="J19" s="2" t="n">
         <f aca="false">ROUND(I19*100, 2)</f>
-        <v>0</v>
+        <v>61.51</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +6304,7 @@
       </c>
       <c r="J23" s="3" t="n">
         <f aca="false">MAX(J2:J21)</f>
-        <v>36.26</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5979,7 +6318,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.001</v>
@@ -5987,7 +6326,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">B26/2</f>
@@ -5996,7 +6335,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">B27/2</f>
@@ -6005,7 +6344,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/2</f>
@@ -6014,7 +6353,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">B29/2</f>
@@ -6104,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6116,10 +6455,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -6155,7 +6494,7 @@
         <v>7.61</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,7 +6671,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -6498,7 +6837,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -6522,7 +6861,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
@@ -7349,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7361,10 +7700,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -7400,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7692,7 +8031,7 @@
         <v>132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>14</v>
@@ -7740,7 +8079,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -7764,7 +8103,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
@@ -9848,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -9860,10 +10199,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -9899,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10076,7 +10415,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -10242,7 +10581,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -10266,7 +10605,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
@@ -10464,7 +10803,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.005</v>
@@ -10489,12 +10828,12 @@
         <v>3.83</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.05</v>

--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,9 +19,10 @@
     <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sheet9_CosFacev2" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="ResNet152" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Sheet10" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sheet10_2" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Sheet11" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="ResNet101_EAF" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet10_2" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Sheet11" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="223">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -605,9 +606,24 @@
     <t xml:space="preserve">9489 secs</t>
   </si>
   <si>
+    <t xml:space="preserve">8934.39 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8925.35 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8824.84 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8835.95 secs</t>
+  </si>
+  <si>
     <t xml:space="preserve">LR (1-3 epochs)</t>
   </si>
   <si>
+    <t xml:space="preserve">8921.07 secs</t>
+  </si>
+  <si>
     <t xml:space="preserve">LR (4-9 epochs)</t>
   </si>
   <si>
@@ -618,6 +634,39 @@
   </si>
   <si>
     <t xml:space="preserve">LR (19 - 20 epochs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-22 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-24 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6358 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6220.36 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Random horizontal flip (prob=0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResNet-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE + ElasticArcFace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss parameters:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 epochs</t>
   </si>
   <si>
     <t xml:space="preserve">LFW</t>
@@ -665,7 +714,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -699,6 +748,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -775,7 +830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -817,6 +872,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,7 +955,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1208,11 +1267,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65375921"/>
-        <c:axId val="16301946"/>
+        <c:axId val="42574260"/>
+        <c:axId val="91710553"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65375921"/>
+        <c:axId val="42574260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1299,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16301946"/>
+        <c:crossAx val="91710553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16301946"/>
+        <c:axId val="91710553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1344,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65375921"/>
+        <c:crossAx val="42574260"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1333,7 +1392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1645,11 +1704,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38105665"/>
-        <c:axId val="99044415"/>
+        <c:axId val="92985947"/>
+        <c:axId val="64251244"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38105665"/>
+        <c:axId val="92985947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1736,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99044415"/>
+        <c:crossAx val="64251244"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1685,7 +1744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99044415"/>
+        <c:axId val="64251244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38105665"/>
+        <c:crossAx val="92985947"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1770,7 +1829,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1837,10 +1896,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$F$2:$F$21</c:f>
+              <c:f>ResNet152!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>32.689</c:v>
                 </c:pt>
@@ -1894,6 +1953,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.7483</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.40551998009533</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.30910996942457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4747</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,10 +2037,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$G$2:$G$21</c:f>
+              <c:f>ResNet152!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>28.8938</c:v>
                 </c:pt>
@@ -2014,6 +2094,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.2028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.98219780464643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.98442796914368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0084</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,11 +2129,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36571932"/>
-        <c:axId val="8798628"/>
+        <c:axId val="47359671"/>
+        <c:axId val="86623522"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36571932"/>
+        <c:axId val="47359671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2161,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8798628"/>
+        <c:crossAx val="86623522"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2068,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8798628"/>
+        <c:axId val="86623522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2206,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36571932"/>
+        <c:crossAx val="47359671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2153,7 +2254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2220,10 +2321,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$H$2:$H$21</c:f>
+              <c:f>ResNet152!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2277,6 +2378,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.7405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.797289380293307</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81035880761414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7548</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,10 +2462,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet152!$I$2:$I$21</c:f>
+              <c:f>ResNet152!$I$2:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2397,6 +2519,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.6151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.644625728834809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.644804341665736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5486</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5672</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6408</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,11 +2554,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8328680"/>
-        <c:axId val="77204525"/>
+        <c:axId val="85695486"/>
+        <c:axId val="24797702"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8328680"/>
+        <c:axId val="85695486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77204525"/>
+        <c:crossAx val="24797702"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2451,7 +2594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77204525"/>
+        <c:axId val="24797702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2631,581 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8328680"/>
+        <c:crossAx val="85695486"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_EAF!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_EAF!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>28.0042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_EAF!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_EAF!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>26.1229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="69099188"/>
+        <c:axId val="94418741"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69099188"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94418741"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94418741"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69099188"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_EAF!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_EAF!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResNet101_EAF!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Val Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>ResNet101_EAF!$I$2:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="93411774"/>
+        <c:axId val="91134887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93411774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91134887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91134887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93411774"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2547,9 +3264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2563,7 +3280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3116520"/>
-          <a:ext cx="4884840" cy="2674800"/>
+          <a:ext cx="4884120" cy="2674080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2584,9 +3301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>480960</xdr:colOff>
+      <xdr:colOff>480240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2600,7 +3317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="502920"/>
-          <a:ext cx="4862160" cy="2674800"/>
+          <a:ext cx="4861440" cy="2674080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2626,9 +3343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2642,7 +3359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3561840"/>
-          <a:ext cx="3800880" cy="2816640"/>
+          <a:ext cx="3800160" cy="2815920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,9 +3380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2679,7 +3396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3524760"/>
-          <a:ext cx="4499640" cy="2722680"/>
+          <a:ext cx="4498920" cy="2721960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,9 +3417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2716,7 +3433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="343080"/>
-          <a:ext cx="3761640" cy="2816640"/>
+          <a:ext cx="3760920" cy="2815920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2737,9 +3454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2753,7 +3470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="304920"/>
-          <a:ext cx="4347360" cy="2796480"/>
+          <a:ext cx="4346640" cy="2795760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,9 +3491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>811080</xdr:colOff>
+      <xdr:colOff>810360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2785,7 +3502,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6492960"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2804,9 +3521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2815,7 +3532,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6498360"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2833,15 +3550,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>220680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1395360</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2849,8 +3566,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3382200" y="4286160"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="3373560" y="5460120"/>
+        <a:ext cx="5837760" cy="2860920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2863,15 +3580,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:colOff>259560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:colOff>634680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2879,8 +3596,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9426600" y="4250880"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="9417240" y="5380560"/>
+        <a:ext cx="6243840" cy="3117960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2895,6 +3612,71 @@
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3373560" y="5635800"/>
+        <a:ext cx="5837760" cy="2860920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9417600" y="5555880"/>
+        <a:ext cx="6243840" cy="3117960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -2904,13 +3686,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 11" descr=""/>
+        <xdr:cNvPr id="28" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2920,7 +3702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3379320" cy="2745360"/>
+          <a:ext cx="3378600" cy="2744640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,13 +3723,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 12" descr=""/>
+        <xdr:cNvPr id="29" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2957,7 +3739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4126680" cy="2838240"/>
+          <a:ext cx="4125960" cy="2837520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,13 +3760,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>362160</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 13" descr=""/>
+        <xdr:cNvPr id="30" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2994,7 +3776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11199960" y="557280"/>
-          <a:ext cx="3763080" cy="2816280"/>
+          <a:ext cx="3762360" cy="2815560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3015,13 +3797,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
+      <xdr:colOff>356760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 14" descr=""/>
+        <xdr:cNvPr id="31" name="Image 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3031,86 +3813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11155680" y="3901680"/>
-          <a:ext cx="3802680" cy="2816280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 11_0" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3379320" cy="2745360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 12_0" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16342560" y="594720"/>
-          <a:ext cx="4126680" cy="2838240"/>
+          <a:ext cx="3801960" cy="2815560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3136,13 +3839,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 11" descr=""/>
+        <xdr:cNvPr id="32" name="Image 11_0" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3152,7 +3855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4782600"/>
-          <a:ext cx="3379320" cy="2745360"/>
+          <a:ext cx="3378600" cy="2744640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,13 +3876,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 12" descr=""/>
+        <xdr:cNvPr id="33" name="Image 12_0" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3189,7 +3892,86 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="594720"/>
-          <a:ext cx="4126680" cy="2838240"/>
+          <a:ext cx="4125960" cy="2837520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217440</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 11" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764840" y="4782600"/>
+          <a:ext cx="3378600" cy="2744640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16342560" y="594720"/>
+          <a:ext cx="4125960" cy="2837520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3210,13 +3992,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>475560</xdr:colOff>
+      <xdr:colOff>474840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 15" descr=""/>
+        <xdr:cNvPr id="36" name="Image 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3226,7 +4008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11273760" y="5652000"/>
-          <a:ext cx="3802680" cy="2824200"/>
+          <a:ext cx="3801960" cy="2823480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3247,13 +4029,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>478800</xdr:colOff>
+      <xdr:colOff>478080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 16" descr=""/>
+        <xdr:cNvPr id="37" name="Image 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3263,7 +4045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11316600" y="2029320"/>
-          <a:ext cx="3763080" cy="2816640"/>
+          <a:ext cx="3762360" cy="2815920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3289,9 +4071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3305,7 +4087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="549000"/>
-          <a:ext cx="5096880" cy="2530080"/>
+          <a:ext cx="5096160" cy="2529360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3331,9 +4113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>405720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3347,7 +4129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5548680" cy="2943720"/>
+          <a:ext cx="5547960" cy="2943000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3368,9 +4150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>413640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3384,7 +4166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3126960"/>
-          <a:ext cx="5655240" cy="2935800"/>
+          <a:ext cx="5654520" cy="2935080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3410,9 +4192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3426,7 +4208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="297360"/>
-          <a:ext cx="5028480" cy="2751120"/>
+          <a:ext cx="5027760" cy="2750400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,9 +4234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3468,7 +4250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3551040"/>
-          <a:ext cx="5343120" cy="2946240"/>
+          <a:ext cx="5342400" cy="2945520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3489,9 +4271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3505,7 +4287,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="334800"/>
-          <a:ext cx="5341320" cy="2941560"/>
+          <a:ext cx="5340600" cy="2940840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3531,9 +4313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3547,7 +4329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3248280"/>
-          <a:ext cx="6046920" cy="3641760"/>
+          <a:ext cx="6046200" cy="3641040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3568,9 +4350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3584,7 +4366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="175320"/>
-          <a:ext cx="6068520" cy="3041280"/>
+          <a:ext cx="6067800" cy="3040560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3610,9 +4392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3626,7 +4408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4281480"/>
-          <a:ext cx="4892760" cy="3592800"/>
+          <a:ext cx="4892040" cy="3592080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,9 +4429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3663,7 +4445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="345960"/>
-          <a:ext cx="4775400" cy="3600000"/>
+          <a:ext cx="4774680" cy="3599280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3689,9 +4471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3705,7 +4487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4100040"/>
-          <a:ext cx="4715640" cy="3494160"/>
+          <a:ext cx="4714920" cy="3493440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3726,9 +4508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
+      <xdr:colOff>220320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3742,7 +4524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="441720"/>
-          <a:ext cx="4687200" cy="3508920"/>
+          <a:ext cx="4686480" cy="3508200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3768,9 +4550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>277560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3784,7 +4566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4316760"/>
-          <a:ext cx="5016240" cy="3565080"/>
+          <a:ext cx="5015520" cy="3564360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,9 +4587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3821,7 +4603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="244800"/>
-          <a:ext cx="4755960" cy="3523320"/>
+          <a:ext cx="4755240" cy="3522600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3842,9 +4624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,7 +4640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16764840" y="4584240"/>
-          <a:ext cx="3379320" cy="2631240"/>
+          <a:ext cx="3378600" cy="2630520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3879,9 +4661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3895,7 +4677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16342560" y="571680"/>
-          <a:ext cx="4126680" cy="2724120"/>
+          <a:ext cx="4125960" cy="2723400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5722,12 +6504,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6267,9 +7049,21 @@
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <v>1.40551998009533</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2.98219780464643</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.797289380293307</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.644625728834809</v>
+      </c>
       <c r="J20" s="2" t="n">
         <f aca="false">ROUND(I20*100, 2)</f>
-        <v>0</v>
+        <v>64.46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,9 +7073,21 @@
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>1.30910996942457</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.98442796914368</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.81035880761414</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.644804341665736</v>
+      </c>
       <c r="J21" s="2" t="n">
         <f aca="false">ROUND(I21*100, 2)</f>
-        <v>0</v>
+        <v>64.48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,6 +7097,28 @@
       <c r="B22" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.421</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3.7346</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.6276</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.5486</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>54.86</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -6299,15 +7127,53 @@
       <c r="B23" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <f aca="false">MAX(J2:J21)</f>
-        <v>61.51</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2.3925</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3.6072</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>56.72</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.6659</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.7548</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.6408</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>64.08</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>17</v>
@@ -6315,36 +7181,88 @@
       <c r="B25" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1.4747</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>3.0084</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.7799</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.6411</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>64.11</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1.1183</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.6736</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>67.36</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">B26/2</f>
         <v>0.0005</v>
       </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">B27/2</f>
         <v>0.00025</v>
       </c>
+      <c r="I28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <f aca="false">MAX(J2:J27)</f>
+        <v>67.36</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/2</f>
@@ -6353,56 +7271,85 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">B29/2</f>
         <v>6.25E-005</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B31/2</f>
+        <v>0.000125</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B32/2</f>
+        <v>6.25E-005</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B40" s="7" t="n">
         <v>0.0005</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6416,6 +7363,498 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4658123</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>28.0042</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>26.1229</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">ROUND(I2*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>26.0949</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>26.0989</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">ROUND(I3*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>582265</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">ROUND(I4*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">ROUND(I5*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">ROUND(I6*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">ROUND(I7*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">ROUND(I8*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">ROUND(I9*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">ROUND(I10*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">ROUND(I11*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">ROUND(I12*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">ROUND(I13*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">ROUND(I14*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">ROUND(I15*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">ROUND(I16*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">ROUND(I17*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">ROUND(I18*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">ROUND(I19*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">ROUND(I20*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <f aca="false">MAX(J2:J28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6443,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6455,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -6494,7 +7933,7 @@
         <v>7.61</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,7 +8110,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
@@ -6837,7 +8276,7 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
@@ -6861,7 +8300,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
@@ -7660,7 +9099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7668,7 +9107,7 @@
   <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
@@ -7688,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7700,10 +9139,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -7722,16 +9161,16 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="12" t="n">
         <v>35.757012432611</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="12" t="n">
         <v>38.3481604053128</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <v>0.000647598488936859</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="n">
@@ -7739,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,16 +9191,16 @@
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="12" t="n">
         <v>35.2795147244762</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="12" t="n">
         <v>35.7972871103594</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="n">
@@ -7779,16 +9218,16 @@
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="12" t="n">
         <v>34.2561768271893</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="12" t="n">
         <v>34.2096680671938</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="12" t="n">
         <v>0.000107933081489477</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <v>0.00403225806451613</v>
       </c>
       <c r="J4" s="5" t="n">
@@ -7801,16 +9240,16 @@
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="12" t="n">
         <v>32.4235560899416</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="12" t="n">
         <v>36.038750310098</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <v>0.00928224500809498</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
@@ -7825,16 +9264,16 @@
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="12" t="n">
         <v>31.3261893007347</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="12" t="n">
         <v>34.5886412589781</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <v>0.0110091743119266</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <v>0.0176411290322581</v>
       </c>
       <c r="J6" s="5" t="n">
@@ -7849,16 +9288,16 @@
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="12" t="n">
         <v>30.1612762792909</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <v>35.2831460275958</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <v>0.0154344306529951</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
@@ -7873,16 +9312,16 @@
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="12" t="n">
         <v>29.1111046984076</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="12" t="n">
         <v>36.3218199206937</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <v>0.0161899622234215</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <v>0.0388104838709677</v>
       </c>
       <c r="J8" s="5" t="n">
@@ -7897,16 +9336,16 @@
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="12" t="n">
         <v>27.9314254587815</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="12" t="n">
         <v>35.5160304654029</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <v>0.0220183486238532</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>0.0372983870967742</v>
       </c>
       <c r="J9" s="5" t="n">
@@ -7918,16 +9357,16 @@
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <v>27.0335725425066</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="12" t="n">
         <v>34.7881883190524</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <v>0.0256880733944954</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>0.0347782258064516</v>
       </c>
       <c r="J10" s="5" t="n">
@@ -7940,16 +9379,16 @@
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12" t="n">
         <v>26.3608308210543</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="12" t="n">
         <v>35.3724667949061</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
         <v>0.0266594711279007</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>0.0236895161290323</v>
       </c>
       <c r="J11" s="5" t="n">
@@ -7961,16 +9400,16 @@
       <c r="E12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="12" t="n">
         <v>23.7449494474589</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="12" t="n">
         <v>34.1708233741022</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="12" t="n">
         <v>0.0287101996762008</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>0.0267137096774194</v>
       </c>
       <c r="J12" s="5" t="n">
@@ -7988,16 +9427,16 @@
       <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="12" t="n">
         <v>22.930134620193</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="12" t="n">
         <v>33.8801354439028</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="12" t="n">
         <v>0.0317323259579061</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>0.030241935483871</v>
       </c>
       <c r="J13" s="5" t="n">
@@ -8009,16 +9448,16 @@
       <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>22.5785499741564</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="12" t="n">
         <v>33.8121136080834</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="12" t="n">
         <v>0.0317323259579061</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <v>0.0317540322580645</v>
       </c>
       <c r="J14" s="5" t="n">
@@ -8031,21 +9470,21 @@
         <v>132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="12" t="n">
         <v>22.3225731962382</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="12" t="n">
         <v>33.7790860822124</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <v>0.0327037236913114</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <v>0.032258064516129</v>
       </c>
       <c r="J15" s="5" t="n">
@@ -8057,16 +9496,16 @@
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="12" t="n">
         <v>22.1470698888277</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="12" t="n">
         <v>33.8030074334914</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <v>0.0347544522396114</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <v>0.030241935483871</v>
       </c>
       <c r="J16" s="5" t="n">
@@ -8079,21 +9518,21 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="12" t="n">
         <v>22.0131281997343</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="12" t="n">
         <v>33.8391857762491</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="12" t="n">
         <v>0.0337830545062062</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="12" t="n">
         <v>0.0327620967741936</v>
       </c>
       <c r="J17" s="5" t="n">
@@ -8103,22 +9542,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="12" t="n">
         <v>21.8645340717231</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="12" t="n">
         <v>33.809995466663</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="12" t="n">
         <v>0.0347544522396114</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="12" t="n">
         <v>0.03125</v>
       </c>
       <c r="J18" s="5" t="n">
@@ -8136,16 +9575,16 @@
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="12" t="n">
         <v>21.726335698646</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="12" t="n">
         <v>33.8082013284006</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="12" t="n">
         <v>0.0345385860766325</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="12" t="n">
         <v>0.03125</v>
       </c>
       <c r="J19" s="5" t="n">
@@ -8157,16 +9596,16 @@
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="12" t="n">
         <v>21.6070675196805</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="12" t="n">
         <v>33.8245678563272</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="12" t="n">
         <v>0.0352941176470588</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="12" t="n">
         <v>0.0327620967741936</v>
       </c>
       <c r="J20" s="5" t="n">
@@ -8181,16 +9620,16 @@
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="12" t="n">
         <v>21.4808830541208</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="12" t="n">
         <v>33.885309650052</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="12" t="n">
         <v>0.0350782514840799</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="12" t="n">
         <v>0.030241935483871</v>
       </c>
       <c r="J21" s="5" t="n">
@@ -8208,16 +9647,16 @@
       <c r="E22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="12" t="n">
         <v>21.3405196838873</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="12" t="n">
         <v>33.8728395277454</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="12" t="n">
         <v>0.0350782514840799</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="12" t="n">
         <v>0.0342741935483871</v>
       </c>
       <c r="J22" s="5" t="n">
@@ -8235,16 +9674,16 @@
       <c r="E23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="12" t="n">
         <v>21.2195472721403</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="12" t="n">
         <v>33.8978923674553</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="12" t="n">
         <v>0.0352941176470588</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="12" t="n">
         <v>0.0307459677419355</v>
       </c>
       <c r="J23" s="5" t="n">
@@ -8256,16 +9695,16 @@
       <c r="E24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="12" t="n">
         <v>21.0692850560674</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="12" t="n">
         <v>33.9420318603516</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="H24" s="12" t="n">
         <v>0.0354020507285483</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="12" t="n">
         <v>0.0307459677419355</v>
       </c>
       <c r="J24" s="5" t="n">
@@ -8283,16 +9722,16 @@
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="12" t="n">
         <v>20.9137005006694</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="12" t="n">
         <v>34.0494817918347</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="12" t="n">
         <v>0.0356179168915273</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="12" t="n">
         <v>0.0297379032258064</v>
       </c>
       <c r="J25" s="5" t="n">
@@ -8310,16 +9749,16 @@
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="12" t="n">
         <v>20.7622710879018</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="12" t="n">
         <v>34.0374442069761</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="12" t="n">
         <v>0.0362655153804641</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="12" t="n">
         <v>0.0357862903225807</v>
       </c>
       <c r="J26" s="5" t="n">
@@ -8331,16 +9770,16 @@
       <c r="E27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="12" t="n">
         <v>20.6350340444335</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="12" t="n">
         <v>34.0450050600113</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="12" t="n">
         <v>0.0361575822989746</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="12" t="n">
         <v>0.0367943548387097</v>
       </c>
       <c r="J27" s="5" t="n">
@@ -8352,16 +9791,16 @@
       <c r="E28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="12" t="n">
         <v>20.4338182468898</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="12" t="n">
         <v>34.0607267810452</v>
       </c>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="12" t="n">
         <v>0.036697247706422</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="12" t="n">
         <v>0.0332661290322581</v>
       </c>
       <c r="J28" s="5" t="n">
@@ -8373,16 +9812,16 @@
       <c r="E29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="12" t="n">
         <v>20.2763626815047</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="12" t="n">
         <v>34.0750106073195</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="12" t="n">
         <v>0.0372369131138694</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="12" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J29" s="5" t="n">
@@ -8397,16 +9836,16 @@
       <c r="E30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="12" t="n">
         <v>20.0708520291241</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="12" t="n">
         <v>34.1856960173576</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="12" t="n">
         <v>0.0388559093362115</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="I30" s="12" t="n">
         <v>0.0297379032258064</v>
       </c>
       <c r="J30" s="5" t="n">
@@ -8424,16 +9863,16 @@
       <c r="E31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="12" t="n">
         <v>19.8516727157239</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="12" t="n">
         <v>34.1409866579117</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="12" t="n">
         <v>0.0425256341068538</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="12" t="n">
         <v>0.0342741935483871</v>
       </c>
       <c r="J31" s="5" t="n">
@@ -8451,16 +9890,16 @@
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="12" t="n">
         <v>19.6490591554595</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="12" t="n">
         <v>34.198842940792</v>
       </c>
-      <c r="H32" s="11" t="n">
+      <c r="H32" s="12" t="n">
         <v>0.0460874257960065</v>
       </c>
-      <c r="I32" s="11" t="n">
+      <c r="I32" s="12" t="n">
         <v>0.0372983870967742</v>
       </c>
       <c r="J32" s="5" t="n">
@@ -8478,16 +9917,16 @@
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="12" t="n">
         <v>19.4231471296908</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="12" t="n">
         <v>34.1440851765294</v>
       </c>
-      <c r="H33" s="11" t="n">
+      <c r="H33" s="12" t="n">
         <v>0.0501888828926066</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="12" t="n">
         <v>0.0403225806451613</v>
       </c>
       <c r="J33" s="5" t="n">
@@ -8505,16 +9944,16 @@
       <c r="E34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="12" t="n">
         <v>19.1646887063337</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="12" t="n">
         <v>34.2746924123456</v>
       </c>
-      <c r="H34" s="11" t="n">
+      <c r="H34" s="12" t="n">
         <v>0.0532110091743119</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="I34" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J34" s="5" t="n">
@@ -8526,16 +9965,16 @@
       <c r="E35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="12" t="n">
         <v>18.9493280446793</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="12" t="n">
         <v>34.2717792141822</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="12" t="n">
         <v>0.0540744738262278</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="12" t="n">
         <v>0.0438508064516129</v>
       </c>
       <c r="J35" s="5" t="n">
@@ -8547,16 +9986,16 @@
       <c r="E36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="12" t="n">
         <v>18.6635739336256</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="12" t="n">
         <v>34.4270250874181</v>
       </c>
-      <c r="H36" s="11" t="n">
+      <c r="H36" s="12" t="n">
         <v>0.0566648677819752</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="I36" s="12" t="n">
         <v>0.0428427419354839</v>
       </c>
       <c r="J36" s="5" t="n">
@@ -8568,16 +10007,16 @@
       <c r="E37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="12" t="n">
         <v>18.4162878461612</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="12" t="n">
         <v>34.465040514546</v>
       </c>
-      <c r="H37" s="11" t="n">
+      <c r="H37" s="12" t="n">
         <v>0.0561252023745278</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="I37" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J37" s="5" t="n">
@@ -8589,16 +10028,16 @@
       <c r="E38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="12" t="n">
         <v>18.1611059395738</v>
       </c>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="12" t="n">
         <v>34.5301731478783</v>
       </c>
-      <c r="H38" s="11" t="n">
+      <c r="H38" s="12" t="n">
         <v>0.0584997301672963</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="12" t="n">
         <v>0.0408266129032258</v>
       </c>
       <c r="J38" s="5" t="n">
@@ -8610,16 +10049,16 @@
       <c r="E39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="12" t="n">
         <v>17.890171713914</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="12" t="n">
         <v>34.6408122893303</v>
       </c>
-      <c r="H39" s="11" t="n">
+      <c r="H39" s="12" t="n">
         <v>0.0582838640043173</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="I39" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J39" s="5" t="n">
@@ -8631,16 +10070,16 @@
       <c r="E40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F40" s="11" t="n">
+      <c r="F40" s="12" t="n">
         <v>17.6138573172539</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="12" t="n">
         <v>34.6426672166394</v>
       </c>
-      <c r="H40" s="11" t="n">
+      <c r="H40" s="12" t="n">
         <v>0.0594711279007016</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="I40" s="12" t="n">
         <v>0.0453629032258065</v>
       </c>
       <c r="J40" s="5" t="n">
@@ -8652,16 +10091,16 @@
       <c r="E41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="12" t="n">
         <v>17.3066566249067</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="12" t="n">
         <v>34.8037476078157</v>
       </c>
-      <c r="H41" s="11" t="n">
+      <c r="H41" s="12" t="n">
         <v>0.062277388019428</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="I41" s="12" t="n">
         <v>0.0428427419354839</v>
       </c>
       <c r="J41" s="5" t="n">
@@ -8673,16 +10112,16 @@
       <c r="E42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="12" t="n">
         <v>17.0602116878652</v>
       </c>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="12" t="n">
         <v>34.9455784213158</v>
       </c>
-      <c r="H42" s="11" t="n">
+      <c r="H42" s="12" t="n">
         <v>0.0663788451160281</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="12" t="n">
         <v>0.0438508064516129</v>
       </c>
       <c r="J42" s="5" t="n">
@@ -8694,16 +10133,16 @@
       <c r="E43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="12" t="n">
         <v>16.7590220075135</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="12" t="n">
         <v>34.939445249496</v>
       </c>
-      <c r="H43" s="11" t="n">
+      <c r="H43" s="12" t="n">
         <v>0.0698327037236913</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="12" t="n">
         <v>0.0403225806451613</v>
       </c>
       <c r="J43" s="5" t="n">
@@ -8715,16 +10154,16 @@
       <c r="E44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="12" t="n">
         <v>16.4217964225888</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="12" t="n">
         <v>35.0582457511656</v>
       </c>
-      <c r="H44" s="11" t="n">
+      <c r="H44" s="12" t="n">
         <v>0.0727468969239072</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="I44" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J44" s="5" t="n">
@@ -8736,16 +10175,16 @@
       <c r="E45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="12" t="n">
         <v>16.1582614211089</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="12" t="n">
         <v>35.2061245825983</v>
       </c>
-      <c r="H45" s="11" t="n">
+      <c r="H45" s="12" t="n">
         <v>0.0739341608202914</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="I45" s="12" t="n">
         <v>0.0423387096774194</v>
       </c>
       <c r="J45" s="5" t="n">
@@ -8757,16 +10196,16 @@
       <c r="E46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="12" t="n">
         <v>15.8391355070885</v>
       </c>
-      <c r="G46" s="11" t="n">
+      <c r="G46" s="12" t="n">
         <v>35.2273399599137</v>
       </c>
-      <c r="H46" s="11" t="n">
+      <c r="H46" s="12" t="n">
         <v>0.0774959525094442</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="12" t="n">
         <v>0.0403225806451613</v>
       </c>
       <c r="J46" s="5" t="n">
@@ -8778,16 +10217,16 @@
       <c r="E47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F47" s="11" t="n">
+      <c r="F47" s="12" t="n">
         <v>15.5489694965896</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="12" t="n">
         <v>35.4358337156234</v>
       </c>
-      <c r="H47" s="11" t="n">
+      <c r="H47" s="12" t="n">
         <v>0.0805180787911495</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="I47" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J47" s="5" t="n">
@@ -8799,16 +10238,16 @@
       <c r="E48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F48" s="11" t="n">
+      <c r="F48" s="12" t="n">
         <v>15.2608957853693</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="12" t="n">
         <v>35.4657589081795</v>
       </c>
-      <c r="H48" s="11" t="n">
+      <c r="H48" s="12" t="n">
         <v>0.0822450080949811</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="I48" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J48" s="5" t="n">
@@ -8820,16 +10259,16 @@
       <c r="E49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="F49" s="11" t="n">
+      <c r="F49" s="12" t="n">
         <v>14.9708342942816</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="12" t="n">
         <v>35.6165516761041</v>
       </c>
-      <c r="H49" s="11" t="n">
+      <c r="H49" s="12" t="n">
         <v>0.0856988667026444</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J49" s="5" t="n">
@@ -8841,16 +10280,16 @@
       <c r="E50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="12" t="n">
         <v>14.6331021592479</v>
       </c>
-      <c r="G50" s="11" t="n">
+      <c r="G50" s="12" t="n">
         <v>35.645256780809</v>
       </c>
-      <c r="H50" s="11" t="n">
+      <c r="H50" s="12" t="n">
         <v>0.0892606583917971</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="12" t="n">
         <v>0.045866935483871</v>
       </c>
       <c r="J50" s="5" t="n">
@@ -8862,16 +10301,16 @@
       <c r="E51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F51" s="11" t="n">
+      <c r="F51" s="12" t="n">
         <v>14.3339594719028</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="12" t="n">
         <v>35.7889143420804</v>
       </c>
-      <c r="H51" s="11" t="n">
+      <c r="H51" s="12" t="n">
         <v>0.0947652455477604</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J51" s="5" t="n">
@@ -8883,16 +10322,16 @@
       <c r="E52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="F52" s="11" t="n">
+      <c r="F52" s="12" t="n">
         <v>14.0433244182301</v>
       </c>
-      <c r="G52" s="11" t="n">
+      <c r="G52" s="12" t="n">
         <v>35.7824958062941</v>
       </c>
-      <c r="H52" s="11" t="n">
+      <c r="H52" s="12" t="n">
         <v>0.0958445763626552</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="I52" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J52" s="5" t="n">
@@ -8904,16 +10343,16 @@
       <c r="E53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="F53" s="11" t="n">
+      <c r="F53" s="12" t="n">
         <v>13.7867766277892</v>
       </c>
-      <c r="G53" s="11" t="n">
+      <c r="G53" s="12" t="n">
         <v>35.9317207336426</v>
       </c>
-      <c r="H53" s="11" t="n">
+      <c r="H53" s="12" t="n">
         <v>0.0990825688073395</v>
       </c>
-      <c r="I53" s="11" t="n">
+      <c r="I53" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J53" s="5" t="n">
@@ -8925,16 +10364,16 @@
       <c r="E54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="F54" s="11" t="n">
+      <c r="F54" s="12" t="n">
         <v>13.5216447978424</v>
       </c>
-      <c r="G54" s="11" t="n">
+      <c r="G54" s="12" t="n">
         <v>35.9619626691264</v>
       </c>
-      <c r="H54" s="11" t="n">
+      <c r="H54" s="12" t="n">
         <v>0.102428494333513</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="I54" s="12" t="n">
         <v>0.0428427419354839</v>
       </c>
       <c r="J54" s="5" t="n">
@@ -8946,16 +10385,16 @@
       <c r="E55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="F55" s="11" t="n">
+      <c r="F55" s="12" t="n">
         <v>13.2350359311956</v>
       </c>
-      <c r="G55" s="11" t="n">
+      <c r="G55" s="12" t="n">
         <v>36.0813090416693</v>
       </c>
-      <c r="H55" s="11" t="n">
+      <c r="H55" s="12" t="n">
         <v>0.106314085267134</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="I55" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J55" s="5" t="n">
@@ -8967,16 +10406,16 @@
       <c r="E56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F56" s="11" t="n">
+      <c r="F56" s="12" t="n">
         <v>12.9395696664719</v>
       </c>
-      <c r="G56" s="11" t="n">
+      <c r="G56" s="12" t="n">
         <v>36.5085507054483</v>
       </c>
-      <c r="H56" s="11" t="n">
+      <c r="H56" s="12" t="n">
         <v>0.110739341608203</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="12" t="n">
         <v>0.0413306451612903</v>
       </c>
       <c r="J56" s="5" t="n">
@@ -8988,16 +10427,16 @@
       <c r="E57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="F57" s="11" t="n">
+      <c r="F57" s="12" t="n">
         <v>12.6631438824015</v>
       </c>
-      <c r="G57" s="11" t="n">
+      <c r="G57" s="12" t="n">
         <v>36.3682099619219</v>
       </c>
-      <c r="H57" s="11" t="n">
+      <c r="H57" s="12" t="n">
         <v>0.114193200215866</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="I57" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J57" s="5" t="n">
@@ -9009,16 +10448,16 @@
       <c r="E58" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="F58" s="11" t="n">
+      <c r="F58" s="12" t="n">
         <v>12.3522739288939</v>
       </c>
-      <c r="G58" s="11" t="n">
+      <c r="G58" s="12" t="n">
         <v>36.372809133222</v>
       </c>
-      <c r="H58" s="11" t="n">
+      <c r="H58" s="12" t="n">
         <v>0.119266055045872</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="I58" s="12" t="n">
         <v>0.0438508064516129</v>
       </c>
       <c r="J58" s="5" t="n">
@@ -9030,16 +10469,16 @@
       <c r="E59" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="F59" s="11" t="n">
+      <c r="F59" s="12" t="n">
         <v>12.0835600783487</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="12" t="n">
         <v>36.5586111007198</v>
       </c>
-      <c r="H59" s="11" t="n">
+      <c r="H59" s="12" t="n">
         <v>0.125526173772261</v>
       </c>
-      <c r="I59" s="11" t="n">
+      <c r="I59" s="12" t="n">
         <v>0.0398185483870968</v>
       </c>
       <c r="J59" s="5" t="n">
@@ -9051,16 +10490,16 @@
       <c r="E60" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F60" s="11" t="n">
+      <c r="F60" s="12" t="n">
         <v>11.8078864099139</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="12" t="n">
         <v>36.6559608213363</v>
       </c>
-      <c r="H60" s="11" t="n">
+      <c r="H60" s="12" t="n">
         <v>0.129735563950351</v>
       </c>
-      <c r="I60" s="11" t="n">
+      <c r="I60" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J60" s="5" t="n">
@@ -9072,16 +10511,16 @@
       <c r="E61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F61" s="11" t="n">
+      <c r="F61" s="12" t="n">
         <v>11.5227723388754</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="12" t="n">
         <v>36.873168206984</v>
       </c>
-      <c r="H61" s="11" t="n">
+      <c r="H61" s="12" t="n">
         <v>0.133405288720993</v>
       </c>
-      <c r="I61" s="11" t="n">
+      <c r="I61" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J61" s="5" t="n">
@@ -9093,16 +10532,16 @@
       <c r="E62" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="F62" s="11" t="n">
+      <c r="F62" s="12" t="n">
         <v>12.2013092302466</v>
       </c>
-      <c r="G62" s="11" t="n">
+      <c r="G62" s="12" t="n">
         <v>36.8526531342537</v>
       </c>
-      <c r="H62" s="11" t="n">
+      <c r="H62" s="12" t="n">
         <v>0.119158121964382</v>
       </c>
-      <c r="I62" s="11" t="n">
+      <c r="I62" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J62" s="5" t="n">
@@ -9114,16 +10553,16 @@
       <c r="E63" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="F63" s="11" t="n">
+      <c r="F63" s="12" t="n">
         <v>12.5072886036205</v>
       </c>
-      <c r="G63" s="11" t="n">
+      <c r="G63" s="12" t="n">
         <v>37.2817641227476</v>
       </c>
-      <c r="H63" s="11" t="n">
+      <c r="H63" s="12" t="n">
         <v>0.115056664867782</v>
       </c>
-      <c r="I63" s="11" t="n">
+      <c r="I63" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J63" s="5" t="n">
@@ -9135,16 +10574,16 @@
       <c r="E64" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="F64" s="11" t="n">
+      <c r="F64" s="12" t="n">
         <v>12.1086427146142</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="12" t="n">
         <v>37.2179092899446</v>
       </c>
-      <c r="H64" s="11" t="n">
+      <c r="H64" s="12" t="n">
         <v>0.12379924446843</v>
       </c>
-      <c r="I64" s="11" t="n">
+      <c r="I64" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J64" s="5" t="n">
@@ -9156,16 +10595,16 @@
       <c r="E65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="F65" s="11" t="n">
+      <c r="F65" s="12" t="n">
         <v>11.7275951719001</v>
       </c>
-      <c r="G65" s="11" t="n">
+      <c r="G65" s="12" t="n">
         <v>37.6027380420316</v>
       </c>
-      <c r="H65" s="11" t="n">
+      <c r="H65" s="12" t="n">
         <v>0.130167296276309</v>
       </c>
-      <c r="I65" s="11" t="n">
+      <c r="I65" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J65" s="5" t="n">
@@ -9177,16 +10616,16 @@
       <c r="E66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F66" s="11" t="n">
+      <c r="F66" s="12" t="n">
         <v>11.49700156375</v>
       </c>
-      <c r="G66" s="11" t="n">
+      <c r="G66" s="12" t="n">
         <v>37.5575255117109</v>
       </c>
-      <c r="H66" s="11" t="n">
+      <c r="H66" s="12" t="n">
         <v>0.13394495412844</v>
       </c>
-      <c r="I66" s="11" t="n">
+      <c r="I66" s="12" t="n">
         <v>0.0443548387096774</v>
       </c>
       <c r="J66" s="5" t="n">
@@ -9198,16 +10637,16 @@
       <c r="E67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="F67" s="11" t="n">
+      <c r="F67" s="12" t="n">
         <v>11.0591135644681</v>
       </c>
-      <c r="G67" s="11" t="n">
+      <c r="G67" s="12" t="n">
         <v>37.7587943538543</v>
       </c>
-      <c r="H67" s="11" t="n">
+      <c r="H67" s="12" t="n">
         <v>0.140960604425256</v>
       </c>
-      <c r="I67" s="11" t="n">
+      <c r="I67" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J67" s="5" t="n">
@@ -9219,16 +10658,16 @@
       <c r="E68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F68" s="11" t="n">
+      <c r="F68" s="12" t="n">
         <v>10.7358229770444</v>
       </c>
-      <c r="G68" s="11" t="n">
+      <c r="G68" s="12" t="n">
         <v>37.6913277410692</v>
       </c>
-      <c r="H68" s="11" t="n">
+      <c r="H68" s="12" t="n">
         <v>0.147868321640583</v>
       </c>
-      <c r="I68" s="11" t="n">
+      <c r="I68" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J68" s="5" t="n">
@@ -9240,16 +10679,16 @@
       <c r="E69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="F69" s="11" t="n">
+      <c r="F69" s="12" t="n">
         <v>10.25896660094</v>
       </c>
-      <c r="G69" s="11" t="n">
+      <c r="G69" s="12" t="n">
         <v>38.0113922857469</v>
       </c>
-      <c r="H69" s="11" t="n">
+      <c r="H69" s="12" t="n">
         <v>0.159309228278467</v>
       </c>
-      <c r="I69" s="11" t="n">
+      <c r="I69" s="12" t="n">
         <v>0.0443548387096774</v>
       </c>
       <c r="J69" s="5" t="n">
@@ -9261,16 +10700,16 @@
       <c r="E70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="F70" s="11" t="n">
+      <c r="F70" s="12" t="n">
         <v>9.92062906696548</v>
       </c>
-      <c r="G70" s="11" t="n">
+      <c r="G70" s="12" t="n">
         <v>38.2841394485966</v>
       </c>
-      <c r="H70" s="11" t="n">
+      <c r="H70" s="12" t="n">
         <v>0.164813815434431</v>
       </c>
-      <c r="I70" s="11" t="n">
+      <c r="I70" s="12" t="n">
         <v>0.0372983870967742</v>
       </c>
       <c r="J70" s="5" t="n">
@@ -9282,16 +10721,16 @@
       <c r="E71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F71" s="11" t="n">
+      <c r="F71" s="12" t="n">
         <v>9.54360354310811</v>
       </c>
-      <c r="G71" s="11" t="n">
+      <c r="G71" s="12" t="n">
         <v>38.2391672442036</v>
       </c>
-      <c r="H71" s="11" t="n">
+      <c r="H71" s="12" t="n">
         <v>0.171829465731247</v>
       </c>
-      <c r="I71" s="11" t="n">
+      <c r="I71" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J71" s="5" t="n">
@@ -9303,16 +10742,16 @@
       <c r="E72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="F72" s="11" t="n">
+      <c r="F72" s="12" t="n">
         <v>8.20430274218144</v>
       </c>
-      <c r="G72" s="11" t="n">
+      <c r="G72" s="12" t="n">
         <v>38.1196956019248</v>
       </c>
-      <c r="H72" s="11" t="n">
+      <c r="H72" s="12" t="n">
         <v>0.205720453318942</v>
       </c>
-      <c r="I72" s="11" t="n">
+      <c r="I72" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J72" s="5" t="n">
@@ -9324,16 +10763,16 @@
       <c r="E73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="F73" s="11" t="n">
+      <c r="F73" s="12" t="n">
         <v>7.64013365525783</v>
       </c>
-      <c r="G73" s="11" t="n">
+      <c r="G73" s="12" t="n">
         <v>38.1714667043378</v>
       </c>
-      <c r="H73" s="11" t="n">
+      <c r="H73" s="12" t="n">
         <v>0.22266594711279</v>
       </c>
-      <c r="I73" s="11" t="n">
+      <c r="I73" s="12" t="n">
         <v>0.0488911290322581</v>
       </c>
       <c r="J73" s="5" t="n">
@@ -9345,16 +10784,16 @@
       <c r="E74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="F74" s="11" t="n">
+      <c r="F74" s="12" t="n">
         <v>7.41583903467597</v>
       </c>
-      <c r="G74" s="11" t="n">
+      <c r="G74" s="12" t="n">
         <v>38.146423216789</v>
       </c>
-      <c r="H74" s="11" t="n">
+      <c r="H74" s="12" t="n">
         <v>0.230760928224501</v>
       </c>
-      <c r="I74" s="11" t="n">
+      <c r="I74" s="12" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J74" s="5" t="n">
@@ -9366,16 +10805,16 @@
       <c r="E75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="F75" s="11" t="n">
+      <c r="F75" s="12" t="n">
         <v>7.23777571635444</v>
       </c>
-      <c r="G75" s="11" t="n">
+      <c r="G75" s="12" t="n">
         <v>38.1654405901509</v>
       </c>
-      <c r="H75" s="11" t="n">
+      <c r="H75" s="12" t="n">
         <v>0.233998920669185</v>
       </c>
-      <c r="I75" s="11" t="n">
+      <c r="I75" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J75" s="5" t="n">
@@ -9387,16 +10826,16 @@
       <c r="E76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F76" s="11" t="n">
+      <c r="F76" s="12" t="n">
         <v>7.10170670410008</v>
       </c>
-      <c r="G76" s="11" t="n">
+      <c r="G76" s="12" t="n">
         <v>38.0942388965238</v>
       </c>
-      <c r="H76" s="11" t="n">
+      <c r="H76" s="12" t="n">
         <v>0.23917970858068</v>
       </c>
-      <c r="I76" s="11" t="n">
+      <c r="I76" s="12" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J76" s="5" t="n">
@@ -9408,16 +10847,16 @@
       <c r="E77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="F77" s="11" t="n">
+      <c r="F77" s="12" t="n">
         <v>6.97959733624363</v>
       </c>
-      <c r="G77" s="11" t="n">
+      <c r="G77" s="12" t="n">
         <v>38.1801576922017</v>
       </c>
-      <c r="H77" s="11" t="n">
+      <c r="H77" s="12" t="n">
         <v>0.246519158121964</v>
       </c>
-      <c r="I77" s="11" t="n">
+      <c r="I77" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J77" s="5" t="n">
@@ -9429,16 +10868,16 @@
       <c r="E78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="F78" s="11" t="n">
+      <c r="F78" s="12" t="n">
         <v>6.87560006443771</v>
       </c>
-      <c r="G78" s="11" t="n">
+      <c r="G78" s="12" t="n">
         <v>38.1870229167323</v>
       </c>
-      <c r="H78" s="11" t="n">
+      <c r="H78" s="12" t="n">
         <v>0.246519158121964</v>
       </c>
-      <c r="I78" s="11" t="n">
+      <c r="I78" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J78" s="5" t="n">
@@ -9450,16 +10889,16 @@
       <c r="E79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="F79" s="11" t="n">
+      <c r="F79" s="12" t="n">
         <v>6.76760670630532</v>
       </c>
-      <c r="G79" s="11" t="n">
+      <c r="G79" s="12" t="n">
         <v>38.1754456796954</v>
       </c>
-      <c r="H79" s="11" t="n">
+      <c r="H79" s="12" t="n">
         <v>0.251052347544522</v>
       </c>
-      <c r="I79" s="11" t="n">
+      <c r="I79" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J79" s="5" t="n">
@@ -9471,16 +10910,16 @@
       <c r="E80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="F80" s="11" t="n">
+      <c r="F80" s="12" t="n">
         <v>6.6742773139406</v>
       </c>
-      <c r="G80" s="11" t="n">
+      <c r="G80" s="12" t="n">
         <v>38.2144932900706</v>
       </c>
-      <c r="H80" s="11" t="n">
+      <c r="H80" s="12" t="n">
         <v>0.252239611440907</v>
       </c>
-      <c r="I80" s="11" t="n">
+      <c r="I80" s="12" t="n">
         <v>0.0488911290322581</v>
       </c>
       <c r="J80" s="5" t="n">
@@ -9492,16 +10931,16 @@
       <c r="E81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F81" s="11" t="n">
+      <c r="F81" s="12" t="n">
         <v>6.61965615853579</v>
       </c>
-      <c r="G81" s="11" t="n">
+      <c r="G81" s="12" t="n">
         <v>38.2206247391239</v>
       </c>
-      <c r="H81" s="11" t="n">
+      <c r="H81" s="12" t="n">
         <v>0.254722072315165</v>
       </c>
-      <c r="I81" s="11" t="n">
+      <c r="I81" s="12" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J81" s="5" t="n">
@@ -9513,16 +10952,16 @@
       <c r="E82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="F82" s="11" t="n">
+      <c r="F82" s="12" t="n">
         <v>6.47623305153474</v>
       </c>
-      <c r="G82" s="11" t="n">
+      <c r="G82" s="12" t="n">
         <v>38.2000178675498</v>
       </c>
-      <c r="H82" s="11" t="n">
+      <c r="H82" s="12" t="n">
         <v>0.259363194819212</v>
       </c>
-      <c r="I82" s="11" t="n">
+      <c r="I82" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J82" s="5" t="n">
@@ -9534,16 +10973,16 @@
       <c r="E83" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="F83" s="11" t="n">
+      <c r="F83" s="12" t="n">
         <v>6.45043253288743</v>
       </c>
-      <c r="G83" s="11" t="n">
+      <c r="G83" s="12" t="n">
         <v>38.2063674926758</v>
       </c>
-      <c r="H83" s="11" t="n">
+      <c r="H83" s="12" t="n">
         <v>0.260118726389638</v>
       </c>
-      <c r="I83" s="11" t="n">
+      <c r="I83" s="12" t="n">
         <v>0.0483870967741936</v>
       </c>
       <c r="J83" s="5" t="n">
@@ -9555,16 +10994,16 @@
       <c r="E84" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="F84" s="11" t="n">
+      <c r="F84" s="12" t="n">
         <v>6.46789742190325</v>
       </c>
-      <c r="G84" s="11" t="n">
+      <c r="G84" s="12" t="n">
         <v>38.2404519357989</v>
       </c>
-      <c r="H84" s="11" t="n">
+      <c r="H84" s="12" t="n">
         <v>0.259471127900702</v>
       </c>
-      <c r="I84" s="11" t="n">
+      <c r="I84" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J84" s="5" t="n">
@@ -9576,16 +11015,16 @@
       <c r="E85" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="F85" s="11" t="n">
+      <c r="F85" s="12" t="n">
         <v>6.43766046303771</v>
       </c>
-      <c r="G85" s="11" t="n">
+      <c r="G85" s="12" t="n">
         <v>38.2285271921466</v>
       </c>
-      <c r="H85" s="11" t="n">
+      <c r="H85" s="12" t="n">
         <v>0.260874257960065</v>
       </c>
-      <c r="I85" s="11" t="n">
+      <c r="I85" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J85" s="5" t="n">
@@ -9597,16 +11036,16 @@
       <c r="E86" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F86" s="11" t="n">
+      <c r="F86" s="12" t="n">
         <v>6.420881998584</v>
       </c>
-      <c r="G86" s="11" t="n">
+      <c r="G86" s="12" t="n">
         <v>38.2227641690162</v>
       </c>
-      <c r="H86" s="11" t="n">
+      <c r="H86" s="12" t="n">
         <v>0.260766324878575</v>
       </c>
-      <c r="I86" s="11" t="n">
+      <c r="I86" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J86" s="5" t="n">
@@ -9618,16 +11057,16 @@
       <c r="E87" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="F87" s="11" t="n">
+      <c r="F87" s="12" t="n">
         <v>6.39108219326861</v>
       </c>
-      <c r="G87" s="11" t="n">
+      <c r="G87" s="12" t="n">
         <v>38.1955401512884</v>
       </c>
-      <c r="H87" s="11" t="n">
+      <c r="H87" s="12" t="n">
         <v>0.261737722611981</v>
       </c>
-      <c r="I87" s="11" t="n">
+      <c r="I87" s="12" t="n">
         <v>0.0483870967741936</v>
       </c>
       <c r="J87" s="5" t="n">
@@ -9639,16 +11078,16 @@
       <c r="E88" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="F88" s="11" t="n">
+      <c r="F88" s="12" t="n">
         <v>6.41887187679845</v>
       </c>
-      <c r="G88" s="11" t="n">
+      <c r="G88" s="12" t="n">
         <v>38.2260449317194</v>
       </c>
-      <c r="H88" s="11" t="n">
+      <c r="H88" s="12" t="n">
         <v>0.261737722611981</v>
       </c>
-      <c r="I88" s="11" t="n">
+      <c r="I88" s="12" t="n">
         <v>0.0483870967741936</v>
       </c>
       <c r="J88" s="5" t="n">
@@ -9660,16 +11099,16 @@
       <c r="E89" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="F89" s="11" t="n">
+      <c r="F89" s="12" t="n">
         <v>6.37458711347256</v>
       </c>
-      <c r="G89" s="11" t="n">
+      <c r="G89" s="12" t="n">
         <v>38.2165391983524</v>
       </c>
-      <c r="H89" s="11" t="n">
+      <c r="H89" s="12" t="n">
         <v>0.263248785752833</v>
       </c>
-      <c r="I89" s="11" t="n">
+      <c r="I89" s="12" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J89" s="5" t="n">
@@ -9681,16 +11120,16 @@
       <c r="E90" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="F90" s="11" t="n">
+      <c r="F90" s="12" t="n">
         <v>6.36922270367741</v>
       </c>
-      <c r="G90" s="11" t="n">
+      <c r="G90" s="12" t="n">
         <v>38.2533495503087</v>
       </c>
-      <c r="H90" s="11" t="n">
+      <c r="H90" s="12" t="n">
         <v>0.262924986508365</v>
       </c>
-      <c r="I90" s="11" t="n">
+      <c r="I90" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J90" s="5" t="n">
@@ -9702,16 +11141,16 @@
       <c r="E91" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F91" s="11" t="n">
+      <c r="F91" s="12" t="n">
         <v>6.35201902940218</v>
       </c>
-      <c r="G91" s="11" t="n">
+      <c r="G91" s="12" t="n">
         <v>38.2162476816485</v>
       </c>
-      <c r="H91" s="11" t="n">
+      <c r="H91" s="12" t="n">
         <v>0.264436049649218</v>
       </c>
-      <c r="I91" s="11" t="n">
+      <c r="I91" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J91" s="5" t="n">
@@ -9723,16 +11162,16 @@
       <c r="E92" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="F92" s="11" t="n">
+      <c r="F92" s="12" t="n">
         <v>6.3571190110941</v>
       </c>
-      <c r="G92" s="11" t="n">
+      <c r="G92" s="12" t="n">
         <v>38.2341110475602</v>
       </c>
-      <c r="H92" s="11" t="n">
+      <c r="H92" s="12" t="n">
         <v>0.264759848893686</v>
       </c>
-      <c r="I92" s="11" t="n">
+      <c r="I92" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J92" s="5" t="n">
@@ -9744,16 +11183,16 @@
       <c r="E93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="F93" s="11" t="n">
+      <c r="F93" s="12" t="n">
         <v>6.33802954153441</v>
       </c>
-      <c r="G93" s="11" t="n">
+      <c r="G93" s="12" t="n">
         <v>38.2076749493999</v>
       </c>
-      <c r="H93" s="11" t="n">
+      <c r="H93" s="12" t="n">
         <v>0.262924986508365</v>
       </c>
-      <c r="I93" s="11" t="n">
+      <c r="I93" s="12" t="n">
         <v>0.0483870967741936</v>
       </c>
       <c r="J93" s="5" t="n">
@@ -9765,16 +11204,16 @@
       <c r="E94" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F94" s="11" t="n">
+      <c r="F94" s="12" t="n">
         <v>6.35575675099718</v>
       </c>
-      <c r="G94" s="11" t="n">
+      <c r="G94" s="12" t="n">
         <v>38.2098273000409</v>
       </c>
-      <c r="H94" s="11" t="n">
+      <c r="H94" s="12" t="n">
         <v>0.265407447382623</v>
       </c>
-      <c r="I94" s="11" t="n">
+      <c r="I94" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J94" s="5" t="n">
@@ -9786,16 +11225,16 @@
       <c r="E95" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="F95" s="11" t="n">
+      <c r="F95" s="12" t="n">
         <v>6.35934699234034</v>
       </c>
-      <c r="G95" s="11" t="n">
+      <c r="G95" s="12" t="n">
         <v>38.2512327624906</v>
       </c>
-      <c r="H95" s="11" t="n">
+      <c r="H95" s="12" t="n">
         <v>0.263032919589854</v>
       </c>
-      <c r="I95" s="11" t="n">
+      <c r="I95" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J95" s="5" t="n">
@@ -9807,16 +11246,16 @@
       <c r="E96" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F96" s="11" t="n">
+      <c r="F96" s="12" t="n">
         <v>6.33212006831903</v>
       </c>
-      <c r="G96" s="11" t="n">
+      <c r="G96" s="12" t="n">
         <v>38.234809014105</v>
       </c>
-      <c r="H96" s="11" t="n">
+      <c r="H96" s="12" t="n">
         <v>0.266594711279007</v>
       </c>
-      <c r="I96" s="11" t="n">
+      <c r="I96" s="12" t="n">
         <v>0.047883064516129</v>
       </c>
       <c r="J96" s="5" t="n">
@@ -9828,16 +11267,16 @@
       <c r="E97" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="F97" s="11" t="n">
+      <c r="F97" s="12" t="n">
         <v>6.32217270644755</v>
       </c>
-      <c r="G97" s="11" t="n">
+      <c r="G97" s="12" t="n">
         <v>38.242075520177</v>
       </c>
-      <c r="H97" s="11" t="n">
+      <c r="H97" s="12" t="n">
         <v>0.265839179708581</v>
       </c>
-      <c r="I97" s="11" t="n">
+      <c r="I97" s="12" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J97" s="5" t="n">
@@ -9849,16 +11288,16 @@
       <c r="E98" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="F98" s="11" t="n">
+      <c r="F98" s="12" t="n">
         <v>6.36975376949527</v>
       </c>
-      <c r="G98" s="11" t="n">
+      <c r="G98" s="12" t="n">
         <v>38.265376429404</v>
       </c>
-      <c r="H98" s="11" t="n">
+      <c r="H98" s="12" t="n">
         <v>0.262601187263896</v>
       </c>
-      <c r="I98" s="11" t="n">
+      <c r="I98" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J98" s="5" t="n">
@@ -9870,16 +11309,16 @@
       <c r="E99" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="F99" s="11" t="n">
+      <c r="F99" s="12" t="n">
         <v>6.36561737029667</v>
       </c>
-      <c r="G99" s="11" t="n">
+      <c r="G99" s="12" t="n">
         <v>38.3016464479508</v>
       </c>
-      <c r="H99" s="11" t="n">
+      <c r="H99" s="12" t="n">
         <v>0.263788451160281</v>
       </c>
-      <c r="I99" s="11" t="n">
+      <c r="I99" s="12" t="n">
         <v>0.0463709677419355</v>
       </c>
       <c r="J99" s="5" t="n">
@@ -9891,16 +11330,16 @@
       <c r="E100" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F100" s="11" t="n">
+      <c r="F100" s="12" t="n">
         <v>6.31370809609608</v>
       </c>
-      <c r="G100" s="11" t="n">
+      <c r="G100" s="12" t="n">
         <v>38.228403645177</v>
       </c>
-      <c r="H100" s="11" t="n">
+      <c r="H100" s="12" t="n">
         <v>0.26400431732326</v>
       </c>
-      <c r="I100" s="11" t="n">
+      <c r="I100" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J100" s="5" t="n">
@@ -9912,16 +11351,16 @@
       <c r="E101" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F101" s="11" t="n">
+      <c r="F101" s="12" t="n">
         <v>6.33648144680297</v>
       </c>
-      <c r="G101" s="11" t="n">
+      <c r="G101" s="12" t="n">
         <v>38.2326646620227</v>
       </c>
-      <c r="H101" s="11" t="n">
+      <c r="H101" s="12" t="n">
         <v>0.265407447382623</v>
       </c>
-      <c r="I101" s="11" t="n">
+      <c r="I101" s="12" t="n">
         <v>0.0488911290322581</v>
       </c>
       <c r="J101" s="5" t="n">
@@ -9933,16 +11372,16 @@
       <c r="E102" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="F102" s="11" t="n">
+      <c r="F102" s="12" t="n">
         <v>6.33157177614767</v>
       </c>
-      <c r="G102" s="11" t="n">
+      <c r="G102" s="12" t="n">
         <v>38.2202081987935</v>
       </c>
-      <c r="H102" s="11" t="n">
+      <c r="H102" s="12" t="n">
         <v>0.264651915812196</v>
       </c>
-      <c r="I102" s="11" t="n">
+      <c r="I102" s="12" t="n">
         <v>0.045866935483871</v>
       </c>
       <c r="J102" s="5" t="n">
@@ -9954,16 +11393,16 @@
       <c r="E103" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="F103" s="11" t="n">
+      <c r="F103" s="12" t="n">
         <v>6.30604319487529</v>
       </c>
-      <c r="G103" s="11" t="n">
+      <c r="G103" s="12" t="n">
         <v>38.22321602606</v>
       </c>
-      <c r="H103" s="11" t="n">
+      <c r="H103" s="12" t="n">
         <v>0.267134376686454</v>
       </c>
-      <c r="I103" s="11" t="n">
+      <c r="I103" s="12" t="n">
         <v>0.0453629032258065</v>
       </c>
       <c r="J103" s="5" t="n">
@@ -9975,16 +11414,16 @@
       <c r="E104" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="F104" s="11" t="n">
+      <c r="F104" s="12" t="n">
         <v>6.33002833203245</v>
       </c>
-      <c r="G104" s="11" t="n">
+      <c r="G104" s="12" t="n">
         <v>38.2689067471412</v>
       </c>
-      <c r="H104" s="11" t="n">
+      <c r="H104" s="12" t="n">
         <v>0.26594711279007</v>
       </c>
-      <c r="I104" s="11" t="n">
+      <c r="I104" s="12" t="n">
         <v>0.0483870967741936</v>
       </c>
       <c r="J104" s="5" t="n">
@@ -9996,16 +11435,16 @@
       <c r="E105" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="F105" s="11" t="n">
+      <c r="F105" s="12" t="n">
         <v>6.35373316228036</v>
       </c>
-      <c r="G105" s="11" t="n">
+      <c r="G105" s="12" t="n">
         <v>38.2947844228437</v>
       </c>
-      <c r="H105" s="11" t="n">
+      <c r="H105" s="12" t="n">
         <v>0.263356718834323</v>
       </c>
-      <c r="I105" s="11" t="n">
+      <c r="I105" s="12" t="n">
         <v>0.045866935483871</v>
       </c>
       <c r="J105" s="5" t="n">
@@ -10017,16 +11456,16 @@
       <c r="E106" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="F106" s="11" t="n">
+      <c r="F106" s="12" t="n">
         <v>6.34424168817816</v>
       </c>
-      <c r="G106" s="11" t="n">
+      <c r="G106" s="12" t="n">
         <v>38.2535504987163</v>
       </c>
-      <c r="H106" s="11" t="n">
+      <c r="H106" s="12" t="n">
         <v>0.26605504587156</v>
       </c>
-      <c r="I106" s="11" t="n">
+      <c r="I106" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J106" s="5" t="n">
@@ -10038,16 +11477,16 @@
       <c r="E107" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="F107" s="11" t="n">
+      <c r="F107" s="12" t="n">
         <v>6.34260400086561</v>
       </c>
-      <c r="G107" s="11" t="n">
+      <c r="G107" s="12" t="n">
         <v>38.2570557132844</v>
       </c>
-      <c r="H107" s="11" t="n">
+      <c r="H107" s="12" t="n">
         <v>0.264112250404749</v>
       </c>
-      <c r="I107" s="11" t="n">
+      <c r="I107" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J107" s="5" t="n">
@@ -10059,16 +11498,16 @@
       <c r="E108" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="F108" s="11" t="n">
+      <c r="F108" s="12" t="n">
         <v>6.32117370717666</v>
       </c>
-      <c r="G108" s="11" t="n">
+      <c r="G108" s="12" t="n">
         <v>38.2216508926884</v>
       </c>
-      <c r="H108" s="11" t="n">
+      <c r="H108" s="12" t="n">
         <v>0.265191581219644</v>
       </c>
-      <c r="I108" s="11" t="n">
+      <c r="I108" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J108" s="5" t="n">
@@ -10080,16 +11519,16 @@
       <c r="E109" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="F109" s="11" t="n">
+      <c r="F109" s="12" t="n">
         <v>6.36429347739758</v>
       </c>
-      <c r="G109" s="11" t="n">
+      <c r="G109" s="12" t="n">
         <v>38.2074208413401</v>
       </c>
-      <c r="H109" s="11" t="n">
+      <c r="H109" s="12" t="n">
         <v>0.262169454937938</v>
       </c>
-      <c r="I109" s="11" t="n">
+      <c r="I109" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J109" s="5" t="n">
@@ -10101,16 +11540,16 @@
       <c r="E110" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="F110" s="11" t="n">
+      <c r="F110" s="12" t="n">
         <v>6.36733474808645</v>
       </c>
-      <c r="G110" s="11" t="n">
+      <c r="G110" s="12" t="n">
         <v>38.2197121650942</v>
       </c>
-      <c r="H110" s="11" t="n">
+      <c r="H110" s="12" t="n">
         <v>0.264975715056665</v>
       </c>
-      <c r="I110" s="11" t="n">
+      <c r="I110" s="12" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J110" s="5" t="n">
@@ -10122,16 +11561,16 @@
       <c r="E111" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="F111" s="11" t="n">
+      <c r="F111" s="12" t="n">
         <v>6.35838345415967</v>
       </c>
-      <c r="G111" s="11" t="n">
+      <c r="G111" s="12" t="n">
         <v>38.2986115486391</v>
       </c>
-      <c r="H111" s="11" t="n">
+      <c r="H111" s="12" t="n">
         <v>0.262924986508365</v>
       </c>
-      <c r="I111" s="11" t="n">
+      <c r="I111" s="12" t="n">
         <v>0.0433467741935484</v>
       </c>
       <c r="J111" s="5" t="n">
@@ -10159,7 +11598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10187,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -10199,10 +11638,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -10221,16 +11660,16 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="12" t="n">
         <v>32.2054225528427</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="12" t="n">
         <v>31.7850760183027</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="n">
@@ -10238,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,16 +11690,16 @@
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="12" t="n">
         <v>30.6930126877778</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="12" t="n">
         <v>31.7908437175135</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="n">
@@ -10278,16 +11717,16 @@
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="12" t="n">
         <v>29.5629164970056</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="12" t="n">
         <v>31.7143130148611</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
@@ -10300,16 +11739,16 @@
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="12" t="n">
         <v>28.3425748832278</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="12" t="n">
         <v>31.8730787461804</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
@@ -10324,16 +11763,16 @@
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="12" t="n">
         <v>27.1181307507024</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="12" t="n">
         <v>31.602838946927</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <v>0.000215866162978953</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <v>0.00504032258064516</v>
       </c>
       <c r="J6" s="5" t="n">
@@ -10348,16 +11787,16 @@
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="12" t="n">
         <v>25.878530221724</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <v>31.6616752378402</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <v>0.00971397733405289</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>0.00957661290322581</v>
       </c>
       <c r="J7" s="5" t="n">
@@ -10372,16 +11811,16 @@
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="12" t="n">
         <v>24.8010859014405</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="12" t="n">
         <v>31.6685883306688</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <v>0.0168375607123583</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <v>0.0136088709677419</v>
       </c>
       <c r="J8" s="5" t="n">
@@ -10396,16 +11835,16 @@
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="12" t="n">
         <v>23.7802713415781</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="12" t="n">
         <v>31.7114606057444</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <v>0.0250404749055586</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>0.0216733870967742</v>
       </c>
       <c r="J9" s="5" t="n">
@@ -10415,21 +11854,21 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <v>22.8254813291547</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="12" t="n">
         <v>31.5738890863234</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <v>0.029681597409606</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>0.0206653225806452</v>
       </c>
       <c r="J10" s="5" t="n">
@@ -10442,16 +11881,16 @@
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12" t="n">
         <v>21.9382469716615</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="12" t="n">
         <v>31.6214319044544</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
         <v>0.0337830545062062</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>0.0196572580645161</v>
       </c>
       <c r="J11" s="5" t="n">
@@ -10463,16 +11902,16 @@
       <c r="E12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="12" t="n">
         <v>21.0240284058704</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="12" t="n">
         <v>31.6891456111785</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="12" t="n">
         <v>0.0361575822989746</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>0.0221774193548387</v>
       </c>
       <c r="J12" s="5" t="n">
@@ -10490,16 +11929,16 @@
       <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="12" t="n">
         <v>20.2605557714999</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="12" t="n">
         <v>31.8347311942808</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="12" t="n">
         <v>0.0419859686994064</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>0.0262096774193548</v>
       </c>
       <c r="J13" s="5" t="n">
@@ -10511,16 +11950,16 @@
       <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>19.4179933526358</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="12" t="n">
         <v>31.8075881465789</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="12" t="n">
         <v>0.0438208310847275</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <v>0.03125</v>
       </c>
       <c r="J14" s="5" t="n">
@@ -10538,16 +11977,16 @@
       <c r="E15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="12" t="n">
         <v>18.5743987890944</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="12" t="n">
         <v>31.7735166242046</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <v>0.046195358877496</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <v>0.030241935483871</v>
       </c>
       <c r="J15" s="5" t="n">
@@ -10559,16 +11998,16 @@
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="12" t="n">
         <v>17.8319083803098</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="12" t="n">
         <v>31.8445556394515</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <v>0.0498650836481382</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <v>0.0297379032258064</v>
       </c>
       <c r="J16" s="5" t="n">
@@ -10581,21 +12020,21 @@
         <v>134</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="12" t="n">
         <v>17.1239574290326</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="12" t="n">
         <v>31.8239166505875</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="12" t="n">
         <v>0.0497571505666487</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="12" t="n">
         <v>0.0307459677419355</v>
       </c>
       <c r="J17" s="5" t="n">
@@ -10605,21 +12044,21 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="12" t="n">
         <v>16.4061122328156</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="12" t="n">
         <v>31.9106161056026</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="12" t="n">
         <v>0.0521316783594172</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="12" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J18" s="5" t="n">
@@ -10637,16 +12076,16 @@
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="12" t="n">
         <v>15.7201023801751</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="12" t="n">
         <v>31.8755968155399</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="12" t="n">
         <v>0.0560172692930383</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="12" t="n">
         <v>0.0317540322580645</v>
       </c>
       <c r="J19" s="5" t="n">
@@ -10658,16 +12097,16 @@
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="12" t="n">
         <v>14.9873045825083</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="12" t="n">
         <v>31.9176310877646</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="12" t="n">
         <v>0.0587155963302752</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="12" t="n">
         <v>0.03125</v>
       </c>
       <c r="J20" s="5" t="n">
@@ -10682,16 +12121,16 @@
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="12" t="n">
         <v>14.2673491934474</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="12" t="n">
         <v>32.0618612227901</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="12" t="n">
         <v>0.0626011872638964</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="12" t="n">
         <v>0.0287298387096774</v>
       </c>
       <c r="J21" s="5" t="n">
@@ -10709,16 +12148,16 @@
       <c r="E22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="12" t="n">
         <v>13.5929028322165</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="12" t="n">
         <v>31.9628589999291</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="12" t="n">
         <v>0.0649757150566649</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="12" t="n">
         <v>0.0337701612903226</v>
       </c>
       <c r="J22" s="5" t="n">
@@ -10736,16 +12175,16 @@
       <c r="E23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="12" t="n">
         <v>12.9671478292071</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="12" t="n">
         <v>32.022264172954</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="12" t="n">
         <v>0.0687533729087966</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="12" t="n">
         <v>0.0342741935483871</v>
       </c>
       <c r="J23" s="5" t="n">
@@ -10757,16 +12196,16 @@
       <c r="E24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="12" t="n">
         <v>12.33247029901</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="12" t="n">
         <v>32.0118035347231</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="H24" s="12" t="n">
         <v>0.075876956287102</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="12" t="n">
         <v>0.0357862903225807</v>
       </c>
       <c r="J24" s="5" t="n">
@@ -10784,16 +12223,16 @@
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="12" t="n">
         <v>11.7750961960424</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="12" t="n">
         <v>31.9348042395807</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="12" t="n">
         <v>0.0807339449541284</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="12" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J25" s="5" t="n">
@@ -10803,7 +12242,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.005</v>
@@ -10811,16 +12250,16 @@
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="12" t="n">
         <v>11.1744501566797</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="12" t="n">
         <v>31.9729727468183</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="12" t="n">
         <v>0.089692390717755</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="12" t="n">
         <v>0.0383064516129032</v>
       </c>
       <c r="J26" s="5" t="n">
@@ -10828,12 +12267,12 @@
         <v>3.83</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.05</v>
@@ -10841,16 +12280,16 @@
       <c r="E27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="12" t="n">
         <v>10.6421984947892</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="12" t="n">
         <v>31.9829955562468</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="12" t="n">
         <v>0.0969239071775499</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="12" t="n">
         <v>0.0352822580645161</v>
       </c>
       <c r="J27" s="5" t="n">
@@ -10862,16 +12301,16 @@
       <c r="E28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="12" t="n">
         <v>10.0165104168657</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="12" t="n">
         <v>31.8400386687248</v>
       </c>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="12" t="n">
         <v>0.11538046411225</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="12" t="n">
         <v>0.0388104838709677</v>
       </c>
       <c r="J28" s="5" t="n">
@@ -10883,16 +12322,16 @@
       <c r="E29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="12" t="n">
         <v>9.53270384474053</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="12" t="n">
         <v>31.9748353035219</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="12" t="n">
         <v>0.132973556395035</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="12" t="n">
         <v>0.0378024193548387</v>
       </c>
       <c r="J29" s="5" t="n">
@@ -10907,16 +12346,16 @@
       <c r="E30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="12" t="n">
         <v>9.00006617583652</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="12" t="n">
         <v>31.9017870503087</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="12" t="n">
         <v>0.155207771181867</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="I30" s="12" t="n">
         <v>0.0403225806451613</v>
       </c>
       <c r="J30" s="5" t="n">
@@ -10934,16 +12373,16 @@
       <c r="E31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="12" t="n">
         <v>8.45536373095196</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="12" t="n">
         <v>32.0326000336678</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="12" t="n">
         <v>0.172800863464652</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="12" t="n">
         <v>0.0327620967741936</v>
       </c>
       <c r="J31" s="5" t="n">
@@ -10961,16 +12400,16 @@
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="12" t="n">
         <v>8.05760832990882</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="12" t="n">
         <v>31.8120426054924</v>
       </c>
-      <c r="H32" s="11" t="n">
+      <c r="H32" s="12" t="n">
         <v>0.197733405288721</v>
       </c>
-      <c r="I32" s="11" t="n">
+      <c r="I32" s="12" t="n">
         <v>0.0388104838709677</v>
       </c>
       <c r="J32" s="5" t="n">
@@ -10988,16 +12427,16 @@
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="12" t="n">
         <v>7.55346663774057</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="12" t="n">
         <v>31.7831491039645</v>
       </c>
-      <c r="H33" s="11" t="n">
+      <c r="H33" s="12" t="n">
         <v>0.225148407987048</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="12" t="n">
         <v>0.0398185483870968</v>
       </c>
       <c r="J33" s="5" t="n">
@@ -11015,16 +12454,16 @@
       <c r="E34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="12" t="n">
         <v>7.13667690104172</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="12" t="n">
         <v>31.9081094803349</v>
       </c>
-      <c r="H34" s="11" t="n">
+      <c r="H34" s="12" t="n">
         <v>0.243712898003238</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="I34" s="12" t="n">
         <v>0.0367943548387097</v>
       </c>
       <c r="J34" s="5" t="n">
@@ -11036,16 +12475,16 @@
       <c r="E35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="12" t="n">
         <v>6.66535740783906</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="12" t="n">
         <v>31.7045055512459</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="12" t="n">
         <v>0.279330814894765</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="12" t="n">
         <v>0.0418346774193548</v>
       </c>
       <c r="J35" s="5" t="n">
@@ -11057,16 +12496,16 @@
       <c r="E36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="12" t="n">
         <v>6.23707972056661</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="12" t="n">
         <v>31.7214019529281</v>
       </c>
-      <c r="H36" s="11" t="n">
+      <c r="H36" s="12" t="n">
         <v>0.308148947652455</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="I36" s="12" t="n">
         <v>0.045866935483871</v>
       </c>
       <c r="J36" s="5" t="n">
@@ -11078,16 +12517,16 @@
       <c r="E37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="12" t="n">
         <v>5.86674977059115</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="12" t="n">
         <v>31.6723471610777</v>
       </c>
-      <c r="H37" s="11" t="n">
+      <c r="H37" s="12" t="n">
         <v>0.332433890987588</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="I37" s="12" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J37" s="5" t="n">
@@ -11099,16 +12538,16 @@
       <c r="E38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="12" t="n">
         <v>5.38739426978781</v>
       </c>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="12" t="n">
         <v>31.4828208185011</v>
       </c>
-      <c r="H38" s="11" t="n">
+      <c r="H38" s="12" t="n">
         <v>0.370102536427415</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="12" t="n">
         <v>0.0438508064516129</v>
       </c>
       <c r="J38" s="5" t="n">
@@ -11120,16 +12559,16 @@
       <c r="E39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="12" t="n">
         <v>5.05429393111598</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="12" t="n">
         <v>31.4291965115455</v>
       </c>
-      <c r="H39" s="11" t="n">
+      <c r="H39" s="12" t="n">
         <v>0.396977873718295</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="I39" s="12" t="n">
         <v>0.0473790322580645</v>
       </c>
       <c r="J39" s="5" t="n">
@@ -11141,16 +12580,16 @@
       <c r="E40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F40" s="11" t="n">
+      <c r="F40" s="12" t="n">
         <v>4.70564357677281</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="12" t="n">
         <v>31.4504491744503</v>
       </c>
-      <c r="H40" s="11" t="n">
+      <c r="H40" s="12" t="n">
         <v>0.42687533729088</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="I40" s="12" t="n">
         <v>0.0448588709677419</v>
       </c>
       <c r="J40" s="5" t="n">
@@ -11162,16 +12601,16 @@
       <c r="E41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="12" t="n">
         <v>4.48002957747038</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="12" t="n">
         <v>31.4779073653683</v>
       </c>
-      <c r="H41" s="11" t="n">
+      <c r="H41" s="12" t="n">
         <v>0.446087425796006</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="I41" s="12" t="n">
         <v>0.046875</v>
       </c>
       <c r="J41" s="5" t="n">
@@ -11183,16 +12622,16 @@
       <c r="E42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="12" t="n">
         <v>4.10678492523951</v>
       </c>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="12" t="n">
         <v>31.3915906106272</v>
       </c>
-      <c r="H42" s="11" t="n">
+      <c r="H42" s="12" t="n">
         <v>0.478791149487318</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="12" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J42" s="5" t="n">
@@ -11204,16 +12643,16 @@
       <c r="E43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="12" t="n">
         <v>3.76624537075267</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="12" t="n">
         <v>31.3019497779108</v>
       </c>
-      <c r="H43" s="11" t="n">
+      <c r="H43" s="12" t="n">
         <v>0.51138694009714</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="12" t="n">
         <v>0.0564516129032258</v>
       </c>
       <c r="J43" s="5" t="n">
@@ -11225,16 +12664,16 @@
       <c r="E44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="12" t="n">
         <v>3.55156113274086</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="12" t="n">
         <v>31.2515402763121</v>
       </c>
-      <c r="H44" s="11" t="n">
+      <c r="H44" s="12" t="n">
         <v>0.531462493254182</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="I44" s="12" t="n">
         <v>0.0524193548387097</v>
       </c>
       <c r="J44" s="5" t="n">
@@ -11246,16 +12685,16 @@
       <c r="E45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="12" t="n">
         <v>3.23742519899503</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="12" t="n">
         <v>31.1630922132923</v>
       </c>
-      <c r="H45" s="11" t="n">
+      <c r="H45" s="12" t="n">
         <v>0.553588774959525</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="I45" s="12" t="n">
         <v>0.0493951612903226</v>
       </c>
       <c r="J45" s="5" t="n">
@@ -11267,16 +12706,16 @@
       <c r="E46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="12" t="n">
         <v>3.04183097979344</v>
       </c>
-      <c r="G46" s="11" t="n">
+      <c r="G46" s="12" t="n">
         <v>31.0902218972483</v>
       </c>
-      <c r="H46" s="11" t="n">
+      <c r="H46" s="12" t="n">
         <v>0.573340528872099</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="I46" s="12" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J46" s="5" t="n">
@@ -11288,16 +12727,16 @@
       <c r="E47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F47" s="11" t="n">
+      <c r="F47" s="12" t="n">
         <v>2.73321991769674</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="12" t="n">
         <v>31.1427854722546</v>
       </c>
-      <c r="H47" s="11" t="n">
+      <c r="H47" s="12" t="n">
         <v>0.604964921748516</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="I47" s="12" t="n">
         <v>0.0519153225806452</v>
       </c>
       <c r="J47" s="5" t="n">
@@ -11309,16 +12748,16 @@
       <c r="E48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F48" s="11" t="n">
+      <c r="F48" s="12" t="n">
         <v>2.51038714191171</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="12" t="n">
         <v>31.0706272740518</v>
       </c>
-      <c r="H48" s="11" t="n">
+      <c r="H48" s="12" t="n">
         <v>0.632379924446843</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="I48" s="12" t="n">
         <v>0.0539314516129032</v>
       </c>
       <c r="J48" s="5" t="n">
@@ -11330,16 +12769,16 @@
       <c r="E49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="F49" s="11" t="n">
+      <c r="F49" s="12" t="n">
         <v>2.30612591518561</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="12" t="n">
         <v>30.8939462477161</v>
       </c>
-      <c r="H49" s="11" t="n">
+      <c r="H49" s="12" t="n">
         <v>0.659363194819212</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="12" t="n">
         <v>0.0544354838709677</v>
       </c>
       <c r="J49" s="5" t="n">
@@ -11351,16 +12790,16 @@
       <c r="E50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="12" t="n">
         <v>2.08227708310098</v>
       </c>
-      <c r="G50" s="11" t="n">
+      <c r="G50" s="12" t="n">
         <v>30.9205594216624</v>
       </c>
-      <c r="H50" s="11" t="n">
+      <c r="H50" s="12" t="n">
         <v>0.680733944954128</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="12" t="n">
         <v>0.0498991935483871</v>
       </c>
       <c r="J50" s="5" t="n">
@@ -11372,16 +12811,16 @@
       <c r="E51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F51" s="11" t="n">
+      <c r="F51" s="12" t="n">
         <v>1.88979074480208</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="12" t="n">
         <v>30.8866706355926</v>
       </c>
-      <c r="H51" s="11" t="n">
+      <c r="H51" s="12" t="n">
         <v>0.709552077711819</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="12" t="n">
         <v>0.0544354838709677</v>
       </c>
       <c r="J51" s="5" t="n">
@@ -13664,7 +15103,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/records/output.xlsx
+++ b/records/output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="241">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -694,6 +694,9 @@
     <t xml:space="preserve">Feature embedding size</t>
   </si>
   <si>
+    <t xml:space="preserve">512-d</t>
+  </si>
+  <si>
     <t xml:space="preserve">ResNet50_CosFace_14_Mar_15.pt</t>
   </si>
   <si>
@@ -712,6 +715,9 @@
     <t xml:space="preserve">4695.14 secs</t>
   </si>
   <si>
+    <t xml:space="preserve">ResNet50_CosFace_15_Mar_20.pt</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-2 epochs</t>
   </si>
   <si>
@@ -724,10 +730,31 @@
     <t xml:space="preserve">9-11 epochs</t>
   </si>
   <si>
+    <t xml:space="preserve">ResNet50_CosFace_15_Mar_30.pt</t>
+  </si>
+  <si>
     <t xml:space="preserve">12-14 epochs</t>
   </si>
   <si>
     <t xml:space="preserve">15 epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-17 epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-20 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-23 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-26 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-29 ep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 epoch</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1013,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1268,11 +1295,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="378923"/>
-        <c:axId val="70419401"/>
+        <c:axId val="62219634"/>
+        <c:axId val="60978545"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378923"/>
+        <c:axId val="62219634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70419401"/>
+        <c:crossAx val="60978545"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70419401"/>
+        <c:axId val="60978545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1372,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378923"/>
+        <c:crossAx val="62219634"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1393,7 +1420,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1543,11 +1570,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="52449177"/>
-        <c:axId val="21406133"/>
+        <c:axId val="13809678"/>
+        <c:axId val="92116663"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52449177"/>
+        <c:axId val="13809678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21406133"/>
+        <c:crossAx val="92116663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +1610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21406133"/>
+        <c:axId val="92116663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52449177"/>
+        <c:crossAx val="13809678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,7 +1695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1986,11 +2013,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72619553"/>
-        <c:axId val="35325253"/>
+        <c:axId val="84130459"/>
+        <c:axId val="65754091"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72619553"/>
+        <c:axId val="84130459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,7 +2049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35325253"/>
+        <c:crossAx val="65754091"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2030,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35325253"/>
+        <c:axId val="65754091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72619553"/>
+        <c:crossAx val="84130459"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2123,7 +2150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2441,11 +2468,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="35799346"/>
-        <c:axId val="19921116"/>
+        <c:axId val="11071572"/>
+        <c:axId val="84974394"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35799346"/>
+        <c:axId val="11071572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19921116"/>
+        <c:crossAx val="84974394"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2485,7 +2512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19921116"/>
+        <c:axId val="84974394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +2554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35799346"/>
+        <c:crossAx val="11071572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2578,7 +2605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2746,11 +2773,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97668195"/>
-        <c:axId val="12815143"/>
+        <c:axId val="80929069"/>
+        <c:axId val="33120833"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97668195"/>
+        <c:axId val="80929069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,7 +2809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12815143"/>
+        <c:crossAx val="33120833"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2790,7 +2817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12815143"/>
+        <c:axId val="33120833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +2859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97668195"/>
+        <c:crossAx val="80929069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2883,7 +2910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3051,11 +3078,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85636114"/>
-        <c:axId val="29061791"/>
+        <c:axId val="68294483"/>
+        <c:axId val="70030925"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85636114"/>
+        <c:axId val="68294483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29061791"/>
+        <c:crossAx val="70030925"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3095,7 +3122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29061791"/>
+        <c:axId val="70030925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3164,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85636114"/>
+        <c:crossAx val="68294483"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3188,7 +3215,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3494,11 +3521,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="86065963"/>
-        <c:axId val="57143895"/>
+        <c:axId val="81661144"/>
+        <c:axId val="35271457"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86065963"/>
+        <c:axId val="81661144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57143895"/>
+        <c:crossAx val="35271457"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57143895"/>
+        <c:axId val="35271457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3607,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86065963"/>
+        <c:crossAx val="81661144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3631,7 +3658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3937,11 +3964,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="688713"/>
-        <c:axId val="47463271"/>
+        <c:axId val="42079147"/>
+        <c:axId val="48331472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="688713"/>
+        <c:axId val="42079147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +4000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47463271"/>
+        <c:crossAx val="48331472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3981,7 +4008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47463271"/>
+        <c:axId val="48331472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +4050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688713"/>
+        <c:crossAx val="42079147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4074,7 +4101,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4134,10 +4161,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$F$2:$F$21</c:f>
+              <c:f>ResNet50_CosFacev2_new!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>28.0292617309346</c:v>
                 </c:pt>
@@ -4184,16 +4211,49 @@
                   <c:v>1.62144230049923</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4922</c:v>
+                  <c:v>1.49219400925974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4791</c:v>
+                  <c:v>1.47912265125098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1419</c:v>
+                  <c:v>1.14187366089847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0637</c:v>
+                  <c:v>1.06372539062105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.03227956021901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.848267499114537</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.805377092734895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.781689519575356</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.686869397168989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.665402421102971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.650564308115184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.603991006919336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.593472885839166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.585870846186684</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.562587404039952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,10 +4310,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$G$2:$G$21</c:f>
+              <c:f>ResNet50_CosFacev2_new!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>17.5497417830003</c:v>
                 </c:pt>
@@ -4300,16 +4360,49 @@
                   <c:v>2.3950191222874</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4301</c:v>
+                  <c:v>2.43006785944977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4472</c:v>
+                  <c:v>2.44721764215509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1399</c:v>
+                  <c:v>2.13991757404631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.139</c:v>
+                  <c:v>2.13895374657133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1365129839997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.00403541881832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.00688646648144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.00411556443704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.94997389549014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.95184851626458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.949846658567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.93271753137412</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.93048721024225</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.93121681639061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.92245736860012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4324,11 +4417,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="23389331"/>
-        <c:axId val="78914195"/>
+        <c:axId val="33969311"/>
+        <c:axId val="47952227"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23389331"/>
+        <c:axId val="33969311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78914195"/>
+        <c:crossAx val="47952227"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4364,7 +4457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78914195"/>
+        <c:axId val="47952227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23389331"/>
+        <c:crossAx val="33969311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4449,7 +4542,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4509,10 +4602,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$H$2:$H$20</c:f>
+              <c:f>ResNet50_CosFacev2_new!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.00185589775108987</c:v>
                 </c:pt>
@@ -4559,16 +4652,49 @@
                   <c:v>0.771655879417525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7858</c:v>
+                  <c:v>0.785847432538815</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7834</c:v>
+                  <c:v>0.783409540709852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.839</c:v>
+                  <c:v>0.839000816423268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8496</c:v>
+                  <c:v>0.849566874897893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.852010348374227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.884896770652042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89156254568632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.894433873901569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.912379728916562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915755766861459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91797833590912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.926849076333965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.928615667727108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.929790604498851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.934235313236684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4625,10 +4751,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>ResNet50_CosFacev2_new!$I$2:$I$20</c:f>
+              <c:f>ResNet50_CosFacev2_new!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.00845491314092381</c:v>
                 </c:pt>
@@ -4675,16 +4801,49 @@
                   <c:v>0.702784814474509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6951</c:v>
+                  <c:v>0.695125071917426</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6921</c:v>
+                  <c:v>0.692121284981924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.736</c:v>
+                  <c:v>0.735975887267825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.735</c:v>
+                  <c:v>0.734966037800658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.735051909353988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754319768490292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753498836440452</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.753649970374314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.761345778983796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.761234145964466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.761174035877135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.764356435643564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.764117712725305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.764193279692236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.765692597013387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,11 +4858,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="77711223"/>
-        <c:axId val="22554944"/>
+        <c:axId val="80595605"/>
+        <c:axId val="83857459"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77711223"/>
+        <c:axId val="80595605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22554944"/>
+        <c:crossAx val="83857459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4739,7 +4898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22554944"/>
+        <c:axId val="83857459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4776,7 +4935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77711223"/>
+        <c:crossAx val="80595605"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4835,9 +4994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>410400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4851,7 +5010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9219960" y="3246120"/>
-          <a:ext cx="4883040" cy="2795040"/>
+          <a:ext cx="4882680" cy="2794680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4872,9 +5031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>479160</xdr:colOff>
+      <xdr:colOff>478800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4888,7 +5047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9311040" y="518400"/>
-          <a:ext cx="4860360" cy="2794680"/>
+          <a:ext cx="4860000" cy="2794320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4914,9 +5073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>130320</xdr:colOff>
+      <xdr:colOff>129960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4930,7 +5089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12118320" y="3714480"/>
-          <a:ext cx="3799080" cy="2936520"/>
+          <a:ext cx="3798720" cy="2936160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4951,9 +5110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4967,7 +5126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15957360" y="3677400"/>
-          <a:ext cx="4497840" cy="2835000"/>
+          <a:ext cx="4497480" cy="2834640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4988,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5004,7 +5163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12147120" y="351000"/>
-          <a:ext cx="3759840" cy="2944080"/>
+          <a:ext cx="3759480" cy="2943720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5025,9 +5184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5041,7 +5200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16073640" y="312840"/>
-          <a:ext cx="4345560" cy="2916360"/>
+          <a:ext cx="4345200" cy="2916000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5062,9 +5221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:colOff>808920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5073,7 +5232,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2798280" y="6721560"/>
-        <a:ext cx="5756040" cy="3243960"/>
+        <a:ext cx="5755680" cy="3243600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5092,9 +5251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5103,7 +5262,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7994520" y="6726960"/>
-        <a:ext cx="5756040" cy="3243960"/>
+        <a:ext cx="5755680" cy="3243600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5127,9 +5286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5138,7 +5297,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5879880"/>
-        <a:ext cx="5836680" cy="2981520"/>
+        <a:ext cx="5836320" cy="2981160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5157,9 +5316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5168,7 +5327,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5792400"/>
-        <a:ext cx="6242760" cy="3246120"/>
+        <a:ext cx="6242400" cy="3245760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5192,9 +5351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5203,7 +5362,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3373560" y="5673960"/>
-        <a:ext cx="5836680" cy="2981520"/>
+        <a:ext cx="5836320" cy="2981160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5222,9 +5381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5233,7 +5392,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9417600" y="5586480"/>
-        <a:ext cx="6242760" cy="3246480"/>
+        <a:ext cx="6242400" cy="3246120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5251,15 +5410,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:colOff>319320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5267,7 +5426,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3618000" y="5378760"/>
+        <a:off x="3480840" y="6023880"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5281,15 +5440,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:colOff>394200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5297,7 +5456,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9408240" y="5394600"/>
+        <a:off x="9551880" y="6044760"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5322,9 +5481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5338,7 +5497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9654120" y="572040"/>
-          <a:ext cx="5095080" cy="2612160"/>
+          <a:ext cx="5094720" cy="2611800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5364,9 +5523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>533520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5380,7 +5539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10639440" y="4426560"/>
-          <a:ext cx="4890960" cy="3591000"/>
+          <a:ext cx="4890600" cy="3590640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5401,9 +5560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5417,7 +5576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751040" y="353880"/>
-          <a:ext cx="4773600" cy="3735360"/>
+          <a:ext cx="4773240" cy="3735000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,9 +5602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
+      <xdr:colOff>404280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5459,7 +5618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10614960" y="173160"/>
-          <a:ext cx="5546880" cy="3071520"/>
+          <a:ext cx="5546520" cy="3071160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5480,9 +5639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5496,7 +5655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10516320" y="3256560"/>
-          <a:ext cx="5653440" cy="2972160"/>
+          <a:ext cx="5653080" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5522,9 +5681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>204480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5538,7 +5697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10431360" y="305280"/>
-          <a:ext cx="5026680" cy="2871000"/>
+          <a:ext cx="5026320" cy="2870640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5564,9 +5723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5580,7 +5739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10554120" y="3703680"/>
-          <a:ext cx="5341320" cy="3074040"/>
+          <a:ext cx="5340960" cy="3073680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5601,9 +5760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5617,7 +5776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10555920" y="342720"/>
-          <a:ext cx="5339520" cy="3069000"/>
+          <a:ext cx="5339160" cy="3068640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5643,9 +5802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5659,7 +5818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10510560" y="3385440"/>
-          <a:ext cx="6045120" cy="3800160"/>
+          <a:ext cx="6044760" cy="3799800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5680,9 +5839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5696,7 +5855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10488960" y="183240"/>
-          <a:ext cx="6066720" cy="3168720"/>
+          <a:ext cx="6066360" cy="3168360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5722,9 +5881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5738,7 +5897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11248560" y="4275360"/>
-          <a:ext cx="4713840" cy="3499920"/>
+          <a:ext cx="4713480" cy="3499560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5759,9 +5918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
+      <xdr:colOff>218880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5775,7 +5934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11291040" y="457200"/>
-          <a:ext cx="4685400" cy="3659400"/>
+          <a:ext cx="4685040" cy="3659040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5801,9 +5960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5817,7 +5976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11019240" y="4499640"/>
-          <a:ext cx="5014440" cy="3601440"/>
+          <a:ext cx="5014080" cy="3601080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5838,9 +5997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5854,7 +6013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11247480" y="252720"/>
-          <a:ext cx="4754160" cy="3673800"/>
+          <a:ext cx="4753800" cy="3673440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5875,9 +6034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>910080</xdr:colOff>
+      <xdr:colOff>909720</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5886,7 +6045,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2757240" y="5026320"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5905,9 +6064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>855720</xdr:colOff>
+      <xdr:colOff>855360</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5916,7 +6075,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2702880" y="8618040"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6883,7 +7042,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9080,12 +9239,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9487,8 +9646,8 @@
       <c r="A16" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>512</v>
+      <c r="B16" s="0" t="s">
+        <v>220</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>15</v>
@@ -9510,7 +9669,7 @@
         <v>70.28</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9518,23 +9677,23 @@
         <v>16</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1.4922</v>
+        <v>1.49219400925974</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2.4301</v>
+        <v>2.43006785944977</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.7858</v>
+        <v>0.785847432538815</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.6951</v>
+        <v>0.695125071917426</v>
       </c>
       <c r="J17" s="4" t="n">
         <f aca="false">ROUND(I17*100, 2)</f>
         <v>69.51</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9548,23 +9707,23 @@
         <v>17</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.4791</v>
+        <v>1.47912265125098</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2.4472</v>
+        <v>2.44721764215509</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.7834</v>
+        <v>0.783409540709852</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.6921</v>
+        <v>0.692121284981924</v>
       </c>
       <c r="J18" s="4" t="n">
         <f aca="false">ROUND(I18*100, 2)</f>
         <v>69.21</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,23 +9731,23 @@
         <v>18</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1.1419</v>
+        <v>1.14187366089847</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2.1399</v>
+        <v>2.13991757404631</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.839</v>
+        <v>0.839000816423268</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.736</v>
+        <v>0.735975887267825</v>
       </c>
       <c r="J19" s="4" t="n">
         <f aca="false">ROUND(I19*100, 2)</f>
         <v>73.6</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9596,40 +9755,78 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1.0637</v>
+        <v>1.06372539062105</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2.139</v>
+        <v>2.13895374657133</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.8496</v>
+        <v>0.849566874897893</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.735</v>
+        <v>0.734966037800658</v>
       </c>
       <c r="J20" s="4" t="n">
         <f aca="false">ROUND(I20*100, 2)</f>
         <v>73.5</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>1.03227956021901</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.1365129839997</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.852010348374227</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.735051909353988</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">ROUND(I21*100, 2)</f>
+        <v>73.51</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.848267499114537</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2.00403541881832</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.884896770652042</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.754319768490292</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">ROUND(I22*100, 2)</f>
+        <v>75.43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -9638,6 +9835,25 @@
       <c r="B23" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.805377092734895</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2.00688646648144</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.89156254568632</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.753498836440452</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">ROUND(I23*100, 2)</f>
+        <v>75.35</v>
+      </c>
       <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,12 +9863,69 @@
       <c r="B24" s="0" t="n">
         <v>0.35</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.781689519575356</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2.00411556443704</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.894433873901569</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.753649970374314</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">ROUND(I24*100, 2)</f>
+        <v>75.36</v>
+      </c>
       <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.686869397168989</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.94997389549014</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.912379728916562</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.761345778983796</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">ROUND(I25*100, 2)</f>
+        <v>76.13</v>
+      </c>
       <c r="K25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.665402421102971</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1.95184851626458</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.915755766861459</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.761234145964466</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">ROUND(I26*100, 2)</f>
+        <v>76.12</v>
+      </c>
       <c r="K26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9662,103 +9935,256 @@
       <c r="B27" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.650564308115184</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1.949846658567</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.91797833590912</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.761174035877135</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">ROUND(I27*100, 2)</f>
+        <v>76.12</v>
+      </c>
       <c r="K27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.01</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.603991006919336</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.93271753137412</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.926849076333965</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.764356435643564</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">ROUND(I28*100, 2)</f>
+        <v>76.44</v>
+      </c>
       <c r="K28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/2</f>
         <v>0.005</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.593472885839166</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1.93048721024225</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.928615667727108</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.764117712725305</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">ROUND(I29*100, 2)</f>
+        <v>76.41</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">B29/2</f>
         <v>0.0025</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <f aca="false">MAX(J2:J29)</f>
-        <v>73.6</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.585870846186684</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1.93121681639061</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.929790604498851</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.764193279692236</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">ROUND(I30*100, 2)</f>
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30/2</f>
         <v>0.00125</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.562587404039952</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1.92245736860012</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.934235313236684</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.765692597013387</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <f aca="false">ROUND(I31*100, 2)</f>
+        <v>76.57</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B31/2</f>
         <v>0.000625</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B32/2</f>
         <v>0.0003125</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="I33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <f aca="false">MAX(J2:J32)</f>
+        <v>76.57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B32/2</f>
+        <v>0.0003125</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">B34/2</f>
+        <v>0.00015625</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">B35/2</f>
+        <v>7.8125E-005</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">B36/2</f>
+        <v>3.90625E-005</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">B37/2</f>
+        <v>1.953125E-005</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">B38/2</f>
+        <v>9.765625E-006</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B45" s="7" t="n">
         <v>0.0005</v>
       </c>
     </row>
